--- a/raw_data/20200818_saline/20200818_Sensor0_Test_86.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_86.xlsx
@@ -1,1279 +1,1695 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02204E67-D688-474C-B340-E3B9C3DF36AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>76502.908748</v>
+        <v>76502.908748000002</v>
       </c>
       <c r="B2" s="1">
-        <v>21.250808</v>
+        <v>21.250807999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>904.199000</v>
+        <v>904.19899999999996</v>
       </c>
       <c r="D2" s="1">
-        <v>-192.950000</v>
+        <v>-192.95</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>76513.337133</v>
+        <v>76513.337132999994</v>
       </c>
       <c r="G2" s="1">
         <v>21.253705</v>
       </c>
       <c r="H2" s="1">
-        <v>921.049000</v>
+        <v>921.04899999999998</v>
       </c>
       <c r="I2" s="1">
-        <v>-164.562000</v>
+        <v>-164.56200000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>76523.749682</v>
+        <v>76523.749681999994</v>
       </c>
       <c r="L2" s="1">
-        <v>21.256597</v>
+        <v>21.256596999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>944.124000</v>
+        <v>944.12400000000002</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.771000</v>
+        <v>-118.771</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>76534.262381</v>
+        <v>76534.262380999993</v>
       </c>
       <c r="Q2" s="1">
-        <v>21.259517</v>
+        <v>21.259516999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>951.091000</v>
+        <v>951.09100000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.792000</v>
+        <v>-103.792</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>76544.817252</v>
+        <v>76544.817251999993</v>
       </c>
       <c r="V2" s="1">
         <v>21.262449</v>
       </c>
       <c r="W2" s="1">
-        <v>957.916000</v>
+        <v>957.91600000000005</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.246400</v>
+        <v>-90.246399999999994</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>76555.269413</v>
+        <v>76555.269413000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>21.265353</v>
+        <v>21.265353000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>965.431000</v>
+        <v>965.43100000000004</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.703800</v>
+        <v>-80.703800000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>76566.147209</v>
+        <v>76566.147209000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>21.268374</v>
+        <v>21.268374000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>970.504000</v>
+        <v>970.50400000000002</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.146200</v>
+        <v>-80.146199999999993</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>76576.375676</v>
+        <v>76576.375675999996</v>
       </c>
       <c r="AK2" s="1">
-        <v>21.271215</v>
+        <v>21.271215000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>978.700000</v>
+        <v>978.7</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.715600</v>
+        <v>-87.715599999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>76586.677582</v>
+        <v>76586.677582000004</v>
       </c>
       <c r="AP2" s="1">
-        <v>21.274077</v>
+        <v>21.274076999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>987.949000</v>
+        <v>987.94899999999996</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.365000</v>
+        <v>-102.36499999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>76597.633710</v>
+        <v>76597.633709999995</v>
       </c>
       <c r="AU2" s="1">
-        <v>21.277120</v>
+        <v>21.27712</v>
       </c>
       <c r="AV2" s="1">
-        <v>999.362000</v>
+        <v>999.36199999999997</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.620000</v>
+        <v>-123.62</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>76608.414256</v>
+        <v>76608.414256000004</v>
       </c>
       <c r="AZ2" s="1">
-        <v>21.280115</v>
+        <v>21.280114999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1008.990000</v>
+        <v>1008.99</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.162000</v>
+        <v>-142.16200000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>76619.394194</v>
+        <v>76619.394193999993</v>
       </c>
       <c r="BE2" s="1">
         <v>21.283165</v>
       </c>
       <c r="BF2" s="1">
-        <v>1054.360000</v>
+        <v>1054.3599999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-225.985000</v>
+        <v>-225.98500000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>76630.438643</v>
+        <v>76630.438643000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>21.286233</v>
+        <v>21.286232999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1133.760000</v>
+        <v>1133.76</v>
       </c>
       <c r="BL2" s="1">
-        <v>-359.929000</v>
+        <v>-359.92899999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>76641.863955</v>
+        <v>76641.863954999993</v>
       </c>
       <c r="BO2" s="1">
-        <v>21.289407</v>
+        <v>21.289407000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1264.420000</v>
+        <v>1264.42</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-566.127000</v>
+        <v>-566.12699999999995</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>76653.133060</v>
+        <v>76653.133059999993</v>
       </c>
       <c r="BT2" s="1">
-        <v>21.292537</v>
+        <v>21.292536999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1410.180000</v>
+        <v>1410.18</v>
       </c>
       <c r="BV2" s="1">
-        <v>-785.740000</v>
+        <v>-785.74</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>76663.805974</v>
+        <v>76663.805974000003</v>
       </c>
       <c r="BY2" s="1">
-        <v>21.295502</v>
+        <v>21.295501999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1570.020000</v>
+        <v>1570.02</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1015.120000</v>
+        <v>-1015.12</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>76674.736808</v>
+        <v>76674.736808000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>21.298538</v>
+        <v>21.298538000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1970.930000</v>
+        <v>1970.93</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1551.660000</v>
+        <v>-1551.66</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>76503.638859</v>
+        <v>76503.638858999999</v>
       </c>
       <c r="B3" s="1">
-        <v>21.251011</v>
+        <v>21.251010999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>904.290000</v>
+        <v>904.29</v>
       </c>
       <c r="D3" s="1">
-        <v>-193.033000</v>
+        <v>-193.03299999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>76513.681357</v>
+        <v>76513.681356999994</v>
       </c>
       <c r="G3" s="1">
-        <v>21.253800</v>
+        <v>21.253799999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>921.166000</v>
+        <v>921.16600000000005</v>
       </c>
       <c r="I3" s="1">
-        <v>-164.665000</v>
+        <v>-164.66499999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>76524.117680</v>
+        <v>76524.117679999996</v>
       </c>
       <c r="L3" s="1">
-        <v>21.256699</v>
+        <v>21.256699000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>944.199000</v>
+        <v>944.19899999999996</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.724000</v>
+        <v>-118.724</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>76534.625459</v>
+        <v>76534.625459000003</v>
       </c>
       <c r="Q3" s="1">
         <v>21.259618</v>
       </c>
       <c r="R3" s="1">
-        <v>951.063000</v>
+        <v>951.06299999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.764000</v>
+        <v>-103.764</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>76545.491282</v>
+        <v>76545.491282000003</v>
       </c>
       <c r="V3" s="1">
-        <v>21.262636</v>
+        <v>21.262636000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>957.807000</v>
+        <v>957.80700000000002</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.307500</v>
+        <v>-90.307500000000005</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>76555.960869</v>
+        <v>76555.960869000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>21.265545</v>
+        <v>21.265544999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>965.335000</v>
+        <v>965.33500000000004</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.742800</v>
+        <v>-80.742800000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>76566.562359</v>
+        <v>76566.562359000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>21.268490</v>
+        <v>21.26849</v>
       </c>
       <c r="AG3" s="1">
-        <v>970.583000</v>
+        <v>970.58299999999997</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.141300</v>
+        <v>-80.141300000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>76576.727338</v>
+        <v>76576.727337999997</v>
       </c>
       <c r="AK3" s="1">
-        <v>21.271313</v>
+        <v>21.271312999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>978.716000</v>
+        <v>978.71600000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.687100</v>
+        <v>-87.687100000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>76587.035196</v>
+        <v>76587.035195999997</v>
       </c>
       <c r="AP3" s="1">
-        <v>21.274176</v>
+        <v>21.274176000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>987.954000</v>
+        <v>987.95399999999995</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.355000</v>
+        <v>-102.355</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>76598.034975</v>
+        <v>76598.034975000002</v>
       </c>
       <c r="AU3" s="1">
-        <v>21.277232</v>
+        <v>21.277232000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>999.357000</v>
+        <v>999.35699999999997</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.626000</v>
+        <v>-123.626</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>76608.820517</v>
       </c>
       <c r="AZ3" s="1">
-        <v>21.280228</v>
+        <v>21.280228000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1009.010000</v>
+        <v>1009.01</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.151000</v>
+        <v>-142.15100000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>76619.818815</v>
+        <v>76619.818815000006</v>
       </c>
       <c r="BE3" s="1">
-        <v>21.283283</v>
+        <v>21.283283000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1054.340000</v>
+        <v>1054.3399999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-225.972000</v>
+        <v>-225.97200000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>76630.891458</v>
+        <v>76630.891457999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>21.286359</v>
+        <v>21.286359000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1133.740000</v>
+        <v>1133.74</v>
       </c>
       <c r="BL3" s="1">
-        <v>-359.949000</v>
+        <v>-359.94900000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>76642.380824</v>
+        <v>76642.380824000007</v>
       </c>
       <c r="BO3" s="1">
-        <v>21.289550</v>
+        <v>21.289549999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1264.430000</v>
+        <v>1264.43</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-566.147000</v>
+        <v>-566.14700000000005</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>76653.570564</v>
+        <v>76653.570563999994</v>
       </c>
       <c r="BT3" s="1">
-        <v>21.292658</v>
+        <v>21.292657999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1410.260000</v>
+        <v>1410.26</v>
       </c>
       <c r="BV3" s="1">
-        <v>-785.751000</v>
+        <v>-785.75099999999998</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>76664.280653</v>
+        <v>76664.280652999994</v>
       </c>
       <c r="BY3" s="1">
         <v>21.295634</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1570.010000</v>
+        <v>1570.01</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1015.130000</v>
+        <v>-1015.13</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>76675.333529</v>
+        <v>76675.333528999996</v>
       </c>
       <c r="CD3" s="1">
-        <v>21.298704</v>
+        <v>21.298704000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1970.680000</v>
+        <v>1970.68</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1549.530000</v>
+        <v>-1549.53</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>76504.008410</v>
+        <v>76504.008409999995</v>
       </c>
       <c r="B4" s="1">
         <v>21.251113</v>
       </c>
       <c r="C4" s="1">
-        <v>904.452000</v>
+        <v>904.452</v>
       </c>
       <c r="D4" s="1">
-        <v>-193.120000</v>
+        <v>-193.12</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>76514.027069</v>
+        <v>76514.027069000003</v>
       </c>
       <c r="G4" s="1">
-        <v>21.253896</v>
+        <v>21.253896000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>921.352000</v>
+        <v>921.35199999999998</v>
       </c>
       <c r="I4" s="1">
-        <v>-164.508000</v>
+        <v>-164.50800000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>76524.477279</v>
+        <v>76524.477278999999</v>
       </c>
       <c r="L4" s="1">
-        <v>21.256799</v>
+        <v>21.256799000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>944.132000</v>
+        <v>944.13199999999995</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.751000</v>
+        <v>-118.751</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>76535.285632</v>
+        <v>76535.285631999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>21.259802</v>
+        <v>21.259802000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>951.008000</v>
+        <v>951.00800000000004</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.777000</v>
+        <v>-103.777</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>76545.863298</v>
+        <v>76545.863297999997</v>
       </c>
       <c r="V4" s="1">
-        <v>21.262740</v>
+        <v>21.262740000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>957.889000</v>
+        <v>957.88900000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.303600</v>
+        <v>-90.303600000000003</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>76556.349700</v>
+        <v>76556.349700000006</v>
       </c>
       <c r="AA4" s="1">
         <v>21.265653</v>
       </c>
       <c r="AB4" s="1">
-        <v>965.398000</v>
+        <v>965.39800000000002</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.717200</v>
+        <v>-80.717200000000005</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>76566.906056</v>
+        <v>76566.906056000007</v>
       </c>
       <c r="AF4" s="1">
-        <v>21.268585</v>
+        <v>21.268585000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>970.549000</v>
+        <v>970.54899999999998</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.296000</v>
+        <v>-80.296000000000006</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>76577.075531</v>
+        <v>76577.075530999995</v>
       </c>
       <c r="AK4" s="1">
-        <v>21.271410</v>
+        <v>21.271409999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>978.732000</v>
+        <v>978.73199999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.689300</v>
+        <v>-87.689300000000003</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>76587.395789</v>
+        <v>76587.395789000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>21.274277</v>
+        <v>21.274277000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>987.949000</v>
+        <v>987.94899999999996</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.352000</v>
+        <v>-102.352</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>76598.466989</v>
+        <v>76598.466988999993</v>
       </c>
       <c r="AU4" s="1">
         <v>21.277352</v>
       </c>
       <c r="AV4" s="1">
-        <v>999.377000</v>
+        <v>999.37699999999995</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.630000</v>
+        <v>-123.63</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>76609.517389</v>
+        <v>76609.517389000001</v>
       </c>
       <c r="AZ4" s="1">
         <v>21.280421</v>
       </c>
       <c r="BA4" s="1">
-        <v>1009.000000</v>
+        <v>1009</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.153000</v>
+        <v>-142.15299999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>76620.145634</v>
       </c>
       <c r="BE4" s="1">
-        <v>21.283374</v>
+        <v>21.283373999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1054.340000</v>
+        <v>1054.3399999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-225.984000</v>
+        <v>-225.98400000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>76631.278833</v>
+        <v>76631.278833000004</v>
       </c>
       <c r="BJ4" s="1">
-        <v>21.286466</v>
+        <v>21.286466000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1133.740000</v>
+        <v>1133.74</v>
       </c>
       <c r="BL4" s="1">
-        <v>-359.942000</v>
+        <v>-359.94200000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>76642.796946</v>
+        <v>76642.796946000002</v>
       </c>
       <c r="BO4" s="1">
         <v>21.289666</v>
       </c>
       <c r="BP4" s="1">
-        <v>1264.440000</v>
+        <v>1264.44</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-566.192000</v>
+        <v>-566.19200000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>76654.003573</v>
+        <v>76654.003572999995</v>
       </c>
       <c r="BT4" s="1">
-        <v>21.292779</v>
+        <v>21.292778999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1410.370000</v>
+        <v>1410.37</v>
       </c>
       <c r="BV4" s="1">
-        <v>-785.785000</v>
+        <v>-785.78499999999997</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>76664.727046</v>
       </c>
       <c r="BY4" s="1">
-        <v>21.295758</v>
+        <v>21.295757999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1570.040000</v>
+        <v>1570.04</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1015.220000</v>
+        <v>-1015.22</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>76675.874135</v>
+        <v>76675.874135000005</v>
       </c>
       <c r="CD4" s="1">
-        <v>21.298854</v>
+        <v>21.298853999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1970.090000</v>
+        <v>1970.09</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1551.360000</v>
+        <v>-1551.36</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>76504.351115</v>
+        <v>76504.351114999998</v>
       </c>
       <c r="B5" s="1">
-        <v>21.251209</v>
+        <v>21.251208999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>904.100000</v>
+        <v>904.1</v>
       </c>
       <c r="D5" s="1">
-        <v>-193.044000</v>
+        <v>-193.04400000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>76514.687243</v>
+        <v>76514.687242999993</v>
       </c>
       <c r="G5" s="1">
-        <v>21.254080</v>
+        <v>21.254079999999998</v>
       </c>
       <c r="H5" s="1">
-        <v>921.133000</v>
+        <v>921.13300000000004</v>
       </c>
       <c r="I5" s="1">
-        <v>-164.448000</v>
+        <v>-164.44800000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>76525.130051</v>
@@ -1282,692 +1698,692 @@
         <v>21.256981</v>
       </c>
       <c r="M5" s="1">
-        <v>944.367000</v>
+        <v>944.36699999999996</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.719000</v>
+        <v>-118.71899999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>76535.669536</v>
+        <v>76535.669536000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>21.259908</v>
+        <v>21.259907999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>951.014000</v>
+        <v>951.01400000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.795000</v>
+        <v>-103.795</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>76546.207507</v>
+        <v>76546.207506999999</v>
       </c>
       <c r="V5" s="1">
-        <v>21.262835</v>
+        <v>21.262834999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>957.812000</v>
+        <v>957.81200000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.047800</v>
+        <v>-90.047799999999995</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>76556.703348</v>
+        <v>76556.703347999995</v>
       </c>
       <c r="AA5" s="1">
-        <v>21.265751</v>
+        <v>21.265751000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>965.416000</v>
+        <v>965.41600000000005</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.639200</v>
+        <v>-80.639200000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>76567.249286</v>
+        <v>76567.249286000006</v>
       </c>
       <c r="AF5" s="1">
-        <v>21.268680</v>
+        <v>21.26868</v>
       </c>
       <c r="AG5" s="1">
-        <v>970.683000</v>
+        <v>970.68299999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.093800</v>
+        <v>-80.093800000000002</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>76577.506554</v>
+        <v>76577.506554000007</v>
       </c>
       <c r="AK5" s="1">
-        <v>21.271530</v>
+        <v>21.271529999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>978.695000</v>
+        <v>978.69500000000005</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.661900</v>
+        <v>-87.661900000000003</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>76587.829291</v>
+        <v>76587.829291000002</v>
       </c>
       <c r="AP5" s="1">
         <v>21.274397</v>
       </c>
       <c r="AQ5" s="1">
-        <v>987.956000</v>
+        <v>987.95600000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.345000</v>
+        <v>-102.345</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>76598.763100</v>
+        <v>76598.763099999996</v>
       </c>
       <c r="AU5" s="1">
         <v>21.277434</v>
       </c>
       <c r="AV5" s="1">
-        <v>999.353000</v>
+        <v>999.35299999999995</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.629000</v>
+        <v>-123.629</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>76609.884398</v>
+        <v>76609.884397999995</v>
       </c>
       <c r="AZ5" s="1">
-        <v>21.280523</v>
+        <v>21.280522999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1009.000000</v>
+        <v>1009</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.161000</v>
+        <v>-142.161</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>76620.507744</v>
+        <v>76620.507744000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>21.283474</v>
+        <v>21.283473999999998</v>
       </c>
       <c r="BF5" s="1">
-        <v>1054.360000</v>
+        <v>1054.3599999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-225.966000</v>
+        <v>-225.96600000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>76631.655793</v>
+        <v>76631.655792999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>21.286571</v>
+        <v>21.286570999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1133.760000</v>
+        <v>1133.76</v>
       </c>
       <c r="BL5" s="1">
-        <v>-359.960000</v>
+        <v>-359.96</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>76643.391169</v>
+        <v>76643.391168999995</v>
       </c>
       <c r="BO5" s="1">
         <v>21.289831</v>
       </c>
       <c r="BP5" s="1">
-        <v>1264.420000</v>
+        <v>1264.42</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-566.135000</v>
+        <v>-566.13499999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>76654.430594</v>
+        <v>76654.430594000005</v>
       </c>
       <c r="BT5" s="1">
         <v>21.292897</v>
       </c>
       <c r="BU5" s="1">
-        <v>1410.280000</v>
+        <v>1410.28</v>
       </c>
       <c r="BV5" s="1">
-        <v>-785.690000</v>
+        <v>-785.69</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>76665.150133</v>
+        <v>76665.150133000003</v>
       </c>
       <c r="BY5" s="1">
-        <v>21.295875</v>
+        <v>21.295874999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1570.210000</v>
+        <v>1570.21</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1015.260000</v>
+        <v>-1015.26</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>76676.410806</v>
       </c>
       <c r="CD5" s="1">
-        <v>21.299003</v>
+        <v>21.299002999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1971.910000</v>
+        <v>1971.91</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1550.560000</v>
+        <v>-1550.56</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>76505.008344</v>
+        <v>76505.008344000002</v>
       </c>
       <c r="B6" s="1">
-        <v>21.251391</v>
+        <v>21.251391000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>904.142000</v>
+        <v>904.14200000000005</v>
       </c>
       <c r="D6" s="1">
-        <v>-193.045000</v>
+        <v>-193.04499999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>76515.061227</v>
+        <v>76515.061226999998</v>
       </c>
       <c r="G6" s="1">
-        <v>21.254184</v>
+        <v>21.254183999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>921.571000</v>
+        <v>921.57100000000003</v>
       </c>
       <c r="I6" s="1">
-        <v>-164.218000</v>
+        <v>-164.21799999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>76525.512431</v>
+        <v>76525.512430999996</v>
       </c>
       <c r="L6" s="1">
-        <v>21.257087</v>
+        <v>21.257086999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>944.290000</v>
+        <v>944.29</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.621000</v>
+        <v>-118.621</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>76536.016240</v>
+        <v>76536.016239999997</v>
       </c>
       <c r="Q6" s="1">
         <v>21.260005</v>
       </c>
       <c r="R6" s="1">
-        <v>951.023000</v>
+        <v>951.02300000000002</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.774000</v>
+        <v>-103.774</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>76546.556721</v>
+        <v>76546.556721000001</v>
       </c>
       <c r="V6" s="1">
-        <v>21.262932</v>
+        <v>21.262931999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>957.930000</v>
+        <v>957.93</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.252300</v>
+        <v>-90.252300000000005</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>76557.051539</v>
+        <v>76557.051538999993</v>
       </c>
       <c r="AA6" s="1">
-        <v>21.265848</v>
+        <v>21.265847999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>965.480000</v>
+        <v>965.48</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.679900</v>
+        <v>-80.679900000000004</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>76567.676373</v>
+        <v>76567.676372999995</v>
       </c>
       <c r="AF6" s="1">
-        <v>21.268799</v>
+        <v>21.268799000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>970.615000</v>
+        <v>970.61500000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.980800</v>
+        <v>-79.980800000000002</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>76577.788297</v>
+        <v>76577.788297000006</v>
       </c>
       <c r="AK6" s="1">
-        <v>21.271608</v>
+        <v>21.271608000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>978.710000</v>
+        <v>978.71</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.670500</v>
+        <v>-87.670500000000004</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>76588.116476</v>
+        <v>76588.116475999996</v>
       </c>
       <c r="AP6" s="1">
-        <v>21.274477</v>
+        <v>21.274477000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>987.960000</v>
+        <v>987.96</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.353000</v>
+        <v>-102.35299999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>76599.126669</v>
+        <v>76599.126669000005</v>
       </c>
       <c r="AU6" s="1">
         <v>21.277535</v>
       </c>
       <c r="AV6" s="1">
-        <v>999.346000</v>
+        <v>999.346</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.638000</v>
+        <v>-123.63800000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>76610.243501</v>
+        <v>76610.243501000004</v>
       </c>
       <c r="AZ6" s="1">
-        <v>21.280623</v>
+        <v>21.280622999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1009.000000</v>
+        <v>1009</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.156000</v>
+        <v>-142.15600000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>76620.866352</v>
+        <v>76620.866351999997</v>
       </c>
       <c r="BE6" s="1">
-        <v>21.283574</v>
+        <v>21.283574000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1054.340000</v>
+        <v>1054.3399999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-225.971000</v>
+        <v>-225.971</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>76632.406291</v>
+        <v>76632.406291000007</v>
       </c>
       <c r="BJ6" s="1">
-        <v>21.286780</v>
+        <v>21.28678</v>
       </c>
       <c r="BK6" s="1">
-        <v>1133.750000</v>
+        <v>1133.75</v>
       </c>
       <c r="BL6" s="1">
-        <v>-359.942000</v>
+        <v>-359.94200000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>76643.613345</v>
+        <v>76643.613345000005</v>
       </c>
       <c r="BO6" s="1">
-        <v>21.289893</v>
+        <v>21.289892999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1264.400000</v>
+        <v>1264.4000000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-566.165000</v>
+        <v>-566.16499999999996</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>76654.842781</v>
+        <v>76654.842780999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>21.293012</v>
+        <v>21.293012000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1410.320000</v>
+        <v>1410.32</v>
       </c>
       <c r="BV6" s="1">
-        <v>-785.695000</v>
+        <v>-785.69500000000005</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>76665.574708</v>
       </c>
       <c r="BY6" s="1">
-        <v>21.295993</v>
+        <v>21.295992999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1570.020000</v>
+        <v>1570.02</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1015.210000</v>
+        <v>-1015.21</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>76676.951952</v>
+        <v>76676.951952000003</v>
       </c>
       <c r="CD6" s="1">
         <v>21.299153</v>
       </c>
       <c r="CE6" s="1">
-        <v>1970.010000</v>
+        <v>1970.01</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1550.390000</v>
+        <v>-1550.39</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>76505.375353</v>
+        <v>76505.375352999996</v>
       </c>
       <c r="B7" s="1">
         <v>21.251493</v>
       </c>
       <c r="C7" s="1">
-        <v>904.254000</v>
+        <v>904.25400000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-193.036000</v>
+        <v>-193.036</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>76515.408941</v>
+        <v>76515.408941000002</v>
       </c>
       <c r="G7" s="1">
-        <v>21.254280</v>
+        <v>21.254280000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>921.268000</v>
+        <v>921.26800000000003</v>
       </c>
       <c r="I7" s="1">
-        <v>-164.515000</v>
+        <v>-164.51499999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>76525.858140</v>
+        <v>76525.858139999997</v>
       </c>
       <c r="L7" s="1">
-        <v>21.257183</v>
+        <v>21.257183000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>944.146000</v>
+        <v>944.14599999999996</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.836000</v>
+        <v>-118.836</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>76536.367374</v>
+        <v>76536.367373999994</v>
       </c>
       <c r="Q7" s="1">
         <v>21.260102</v>
       </c>
       <c r="R7" s="1">
-        <v>951.054000</v>
+        <v>951.05399999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.817000</v>
+        <v>-103.81699999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>76546.984242</v>
+        <v>76546.984242000006</v>
       </c>
       <c r="V7" s="1">
-        <v>21.263051</v>
+        <v>21.263051000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>957.934000</v>
+        <v>957.93399999999997</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.155300</v>
+        <v>-90.155299999999997</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>76557.481571</v>
+        <v>76557.481570999997</v>
       </c>
       <c r="AA7" s="1">
         <v>21.265967</v>
       </c>
       <c r="AB7" s="1">
-        <v>965.487000</v>
+        <v>965.48699999999997</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.719600</v>
+        <v>-80.7196</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>76567.947157</v>
+        <v>76567.947157000002</v>
       </c>
       <c r="AF7" s="1">
         <v>21.268874</v>
       </c>
       <c r="AG7" s="1">
-        <v>970.716000</v>
+        <v>970.71600000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.018800</v>
+        <v>-80.018799999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>76578.136472</v>
+        <v>76578.136471999998</v>
       </c>
       <c r="AK7" s="1">
-        <v>21.271705</v>
+        <v>21.271705000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>978.690000</v>
+        <v>978.69</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.698400</v>
+        <v>-87.698400000000007</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>76588.475082</v>
+        <v>76588.475082000004</v>
       </c>
       <c r="AP7" s="1">
         <v>21.274576</v>
       </c>
       <c r="AQ7" s="1">
-        <v>987.955000</v>
+        <v>987.95500000000004</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.370000</v>
+        <v>-102.37</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>76599.492220</v>
+        <v>76599.49222</v>
       </c>
       <c r="AU7" s="1">
-        <v>21.277637</v>
+        <v>21.277636999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>999.359000</v>
+        <v>999.35900000000004</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.625000</v>
+        <v>-123.625</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>76610.958771</v>
+        <v>76610.958771000005</v>
       </c>
       <c r="AZ7" s="1">
-        <v>21.280822</v>
+        <v>21.280822000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1008.970000</v>
+        <v>1008.97</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.151000</v>
+        <v>-142.15100000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>76621.589982</v>
+        <v>76621.589982000005</v>
       </c>
       <c r="BE7" s="1">
-        <v>21.283775</v>
+        <v>21.283774999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1054.360000</v>
+        <v>1054.3599999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-225.988000</v>
+        <v>-225.988</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>76632.781713</v>
+        <v>76632.781713000004</v>
       </c>
       <c r="BJ7" s="1">
-        <v>21.286884</v>
+        <v>21.286884000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1133.740000</v>
+        <v>1133.74</v>
       </c>
       <c r="BL7" s="1">
-        <v>-359.932000</v>
+        <v>-359.93200000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>76644.013617</v>
+        <v>76644.013617000004</v>
       </c>
       <c r="BO7" s="1">
         <v>21.290004</v>
       </c>
       <c r="BP7" s="1">
-        <v>1264.390000</v>
+        <v>1264.3900000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-566.177000</v>
+        <v>-566.17700000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>76655.273793</v>
@@ -1976,3159 +2392,3159 @@
         <v>21.293132</v>
       </c>
       <c r="BU7" s="1">
-        <v>1410.340000</v>
+        <v>1410.34</v>
       </c>
       <c r="BV7" s="1">
-        <v>-785.668000</v>
+        <v>-785.66800000000001</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>76666.348995</v>
+        <v>76666.348994999993</v>
       </c>
       <c r="BY7" s="1">
         <v>21.296208</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1569.910000</v>
+        <v>1569.91</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1015.160000</v>
+        <v>-1015.16</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>76677.490633</v>
+        <v>76677.490632999994</v>
       </c>
       <c r="CD7" s="1">
-        <v>21.299303</v>
+        <v>21.299302999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>1971.150000</v>
+        <v>1971.15</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1551.820000</v>
+        <v>-1551.82</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>76505.718622</v>
       </c>
       <c r="B8" s="1">
-        <v>21.251589</v>
+        <v>21.251588999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>904.176000</v>
+        <v>904.17600000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>-193.005000</v>
+        <v>-193.005</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>76515.751659</v>
+        <v>76515.751659000001</v>
       </c>
       <c r="G8" s="1">
         <v>21.254375</v>
       </c>
       <c r="H8" s="1">
-        <v>921.326000</v>
+        <v>921.32600000000002</v>
       </c>
       <c r="I8" s="1">
-        <v>-164.409000</v>
+        <v>-164.40899999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>76526.281228</v>
+        <v>76526.281228000007</v>
       </c>
       <c r="L8" s="1">
-        <v>21.257300</v>
+        <v>21.257300000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>944.207000</v>
+        <v>944.20699999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.763000</v>
+        <v>-118.76300000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>76536.798895</v>
       </c>
       <c r="Q8" s="1">
-        <v>21.260222</v>
+        <v>21.260221999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>951.030000</v>
+        <v>951.03</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.800000</v>
+        <v>-103.8</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>76547.257569</v>
+        <v>76547.257568999994</v>
       </c>
       <c r="V8" s="1">
-        <v>21.263127</v>
+        <v>21.263127000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>957.873000</v>
+        <v>957.87300000000005</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.177000</v>
+        <v>-90.177000000000007</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>76557.750900</v>
+        <v>76557.750899999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>21.266042</v>
+        <v>21.266041999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>965.491000</v>
+        <v>965.49099999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.706100</v>
+        <v>-80.706100000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>76568.290139</v>
+        <v>76568.290139000004</v>
       </c>
       <c r="AF8" s="1">
-        <v>21.268969</v>
+        <v>21.268968999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>970.605000</v>
+        <v>970.60500000000002</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.115900</v>
+        <v>-80.115899999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>76578.484663</v>
+        <v>76578.484662999996</v>
       </c>
       <c r="AK8" s="1">
         <v>21.271801</v>
       </c>
       <c r="AL8" s="1">
-        <v>978.710000</v>
+        <v>978.71</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.670200</v>
+        <v>-87.670199999999994</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>76588.835673</v>
+        <v>76588.835672999994</v>
       </c>
       <c r="AP8" s="1">
-        <v>21.274677</v>
+        <v>21.274677000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>987.977000</v>
+        <v>987.97699999999998</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.349000</v>
+        <v>-102.349</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>76600.227290</v>
+        <v>76600.227289999995</v>
       </c>
       <c r="AU8" s="1">
-        <v>21.277841</v>
+        <v>21.277840999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>999.350000</v>
+        <v>999.35</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.621000</v>
+        <v>-123.621</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>76611.320316</v>
+        <v>76611.320315999998</v>
       </c>
       <c r="AZ8" s="1">
         <v>21.280922</v>
       </c>
       <c r="BA8" s="1">
-        <v>1009.000000</v>
+        <v>1009</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.156000</v>
+        <v>-142.15600000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>76621.977871</v>
+        <v>76621.977870999996</v>
       </c>
       <c r="BE8" s="1">
-        <v>21.283883</v>
+        <v>21.283882999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1054.340000</v>
+        <v>1054.3399999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-225.987000</v>
+        <v>-225.98699999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>76633.158213</v>
+        <v>76633.158213000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>21.286988</v>
+        <v>21.286988000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1133.740000</v>
+        <v>1133.74</v>
       </c>
       <c r="BL8" s="1">
-        <v>-359.937000</v>
+        <v>-359.93700000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>76644.743759</v>
+        <v>76644.743759000005</v>
       </c>
       <c r="BO8" s="1">
-        <v>21.290207</v>
+        <v>21.290206999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1264.440000</v>
+        <v>1264.44</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-566.194000</v>
+        <v>-566.19399999999996</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>76656.014819</v>
+        <v>76656.014819000004</v>
       </c>
       <c r="BT8" s="1">
-        <v>21.293337</v>
+        <v>21.293337000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1410.380000</v>
+        <v>1410.38</v>
       </c>
       <c r="BV8" s="1">
-        <v>-785.722000</v>
+        <v>-785.72199999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>76666.460562</v>
+        <v>76666.460561999993</v>
       </c>
       <c r="BY8" s="1">
         <v>21.296239</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1569.970000</v>
+        <v>1569.97</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1015.190000</v>
+        <v>-1015.19</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>76678.032229</v>
+        <v>76678.032229000004</v>
       </c>
       <c r="CD8" s="1">
         <v>21.299453</v>
       </c>
       <c r="CE8" s="1">
-        <v>1970.880000</v>
+        <v>1970.88</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1549.750000</v>
+        <v>-1549.75</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>76506.057880</v>
+        <v>76506.057879999993</v>
       </c>
       <c r="B9" s="1">
         <v>21.251683</v>
       </c>
       <c r="C9" s="1">
-        <v>904.283000</v>
+        <v>904.28300000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-193.002000</v>
+        <v>-193.00200000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>76516.179706</v>
+        <v>76516.179705999995</v>
       </c>
       <c r="G9" s="1">
-        <v>21.254494</v>
+        <v>21.254494000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>921.111000</v>
+        <v>921.11099999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-164.424000</v>
+        <v>-164.42400000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>76526.562460</v>
+        <v>76526.562460000001</v>
       </c>
       <c r="L9" s="1">
-        <v>21.257378</v>
+        <v>21.257377999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>944.189000</v>
+        <v>944.18899999999996</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.716000</v>
+        <v>-118.71599999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>76537.068254</v>
+        <v>76537.068253999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>21.260297</v>
+        <v>21.260297000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>951.003000</v>
+        <v>951.00300000000004</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.834000</v>
+        <v>-103.834</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>76547.601760</v>
+        <v>76547.601760000005</v>
       </c>
       <c r="V9" s="1">
         <v>21.263223</v>
       </c>
       <c r="W9" s="1">
-        <v>957.823000</v>
+        <v>957.82299999999998</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.240600</v>
+        <v>-90.240600000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>76558.102562</v>
       </c>
       <c r="AA9" s="1">
-        <v>21.266140</v>
+        <v>21.26614</v>
       </c>
       <c r="AB9" s="1">
-        <v>965.483000</v>
+        <v>965.48299999999995</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.655000</v>
+        <v>-80.655000000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>76568.633156</v>
+        <v>76568.633155999996</v>
       </c>
       <c r="AF9" s="1">
-        <v>21.269065</v>
+        <v>21.269065000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>970.526000</v>
+        <v>970.52599999999995</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.251800</v>
+        <v>-80.251800000000003</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>76579.180551</v>
+        <v>76579.180550999998</v>
       </c>
       <c r="AK9" s="1">
         <v>21.271995</v>
       </c>
       <c r="AL9" s="1">
-        <v>978.704000</v>
+        <v>978.70399999999995</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.683200</v>
+        <v>-87.683199999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>76589.555371</v>
+        <v>76589.555370999995</v>
       </c>
       <c r="AP9" s="1">
-        <v>21.274876</v>
+        <v>21.274875999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>987.958000</v>
+        <v>987.95799999999997</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.336000</v>
+        <v>-102.336</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>76600.611690</v>
+        <v>76600.611690000005</v>
       </c>
       <c r="AU9" s="1">
-        <v>21.277948</v>
+        <v>21.277947999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>999.352000</v>
+        <v>999.35199999999998</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.625000</v>
+        <v>-123.625</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>76611.679917</v>
+        <v>76611.679917000001</v>
       </c>
       <c r="AZ9" s="1">
         <v>21.281022</v>
       </c>
       <c r="BA9" s="1">
-        <v>1008.980000</v>
+        <v>1008.98</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.145000</v>
+        <v>-142.14500000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>76622.359773</v>
+        <v>76622.359773000004</v>
       </c>
       <c r="BE9" s="1">
-        <v>21.283989</v>
+        <v>21.283988999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1054.360000</v>
+        <v>1054.3599999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-225.977000</v>
+        <v>-225.977</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>76633.851099</v>
+        <v>76633.851099000007</v>
       </c>
       <c r="BJ9" s="1">
         <v>21.287181</v>
       </c>
       <c r="BK9" s="1">
-        <v>1133.730000</v>
+        <v>1133.73</v>
       </c>
       <c r="BL9" s="1">
-        <v>-359.959000</v>
+        <v>-359.959</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>76644.857311</v>
       </c>
       <c r="BO9" s="1">
-        <v>21.290238</v>
+        <v>21.290237999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1264.400000</v>
+        <v>1264.4000000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-566.185000</v>
+        <v>-566.18499999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>76656.147248</v>
+        <v>76656.147247999994</v>
       </c>
       <c r="BT9" s="1">
         <v>21.293374</v>
       </c>
       <c r="BU9" s="1">
-        <v>1410.450000</v>
+        <v>1410.45</v>
       </c>
       <c r="BV9" s="1">
-        <v>-785.711000</v>
+        <v>-785.71100000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>76666.894564</v>
+        <v>76666.894564000002</v>
       </c>
       <c r="BY9" s="1">
-        <v>21.296360</v>
+        <v>21.29636</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1569.910000</v>
+        <v>1569.91</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1015.190000</v>
+        <v>-1015.19</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>76678.570387</v>
       </c>
       <c r="CD9" s="1">
-        <v>21.299603</v>
+        <v>21.299603000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1969.970000</v>
+        <v>1969.97</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1551.520000</v>
+        <v>-1551.52</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>76506.484903</v>
+        <v>76506.484903000004</v>
       </c>
       <c r="B10" s="1">
         <v>21.251801</v>
       </c>
       <c r="C10" s="1">
-        <v>904.320000</v>
+        <v>904.32</v>
       </c>
       <c r="D10" s="1">
-        <v>-192.961000</v>
+        <v>-192.96100000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>76516.446553</v>
+        <v>76516.446553000002</v>
       </c>
       <c r="G10" s="1">
-        <v>21.254568</v>
+        <v>21.254567999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>921.370000</v>
+        <v>921.37</v>
       </c>
       <c r="I10" s="1">
-        <v>-164.509000</v>
+        <v>-164.50899999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>76526.909164</v>
+        <v>76526.909163999997</v>
       </c>
       <c r="L10" s="1">
-        <v>21.257475</v>
+        <v>21.257474999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>944.169000</v>
+        <v>944.16899999999998</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.854000</v>
+        <v>-118.854</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>76537.413438</v>
+        <v>76537.413438000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>21.260393</v>
+        <v>21.260393000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>950.984000</v>
+        <v>950.98400000000004</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.793000</v>
+        <v>-103.79300000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>76547.946479</v>
+        <v>76547.946479000006</v>
       </c>
       <c r="V10" s="1">
-        <v>21.263318</v>
+        <v>21.263318000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>957.932000</v>
+        <v>957.93200000000002</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.168400</v>
+        <v>-90.168400000000005</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>76558.446785</v>
+        <v>76558.446784999993</v>
       </c>
       <c r="AA10" s="1">
-        <v>21.266235</v>
+        <v>21.266235000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>965.508000</v>
+        <v>965.50800000000004</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.740100</v>
+        <v>-80.740099999999998</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>76569.319620</v>
+        <v>76569.319619999995</v>
       </c>
       <c r="AF10" s="1">
-        <v>21.269255</v>
+        <v>21.269255000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>970.607000</v>
+        <v>970.60699999999997</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.105800</v>
+        <v>-80.105800000000002</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>76579.530727</v>
+        <v>76579.530727000005</v>
       </c>
       <c r="AK10" s="1">
-        <v>21.272092</v>
+        <v>21.272092000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>978.706000</v>
+        <v>978.70600000000002</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.687300</v>
+        <v>-87.687299999999993</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>76589.917448</v>
+        <v>76589.917447999993</v>
       </c>
       <c r="AP10" s="1">
         <v>21.274977</v>
       </c>
       <c r="AQ10" s="1">
-        <v>987.966000</v>
+        <v>987.96600000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.373000</v>
+        <v>-102.373</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>76600.975753</v>
+        <v>76600.975753000006</v>
       </c>
       <c r="AU10" s="1">
-        <v>21.278049</v>
+        <v>21.278048999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>999.344000</v>
+        <v>999.34400000000005</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.606000</v>
+        <v>-123.60599999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>76612.355466</v>
+        <v>76612.355465999994</v>
       </c>
       <c r="AZ10" s="1">
-        <v>21.281210</v>
+        <v>21.281210000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1008.970000</v>
+        <v>1008.97</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.151000</v>
+        <v>-142.15100000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>76623.036316</v>
+        <v>76623.036315999998</v>
       </c>
       <c r="BE10" s="1">
         <v>21.284177</v>
       </c>
       <c r="BF10" s="1">
-        <v>1054.350000</v>
+        <v>1054.3499999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-225.964000</v>
+        <v>-225.964</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>76634.284145</v>
+        <v>76634.284144999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>21.287301</v>
+        <v>21.287300999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1133.720000</v>
+        <v>1133.72</v>
       </c>
       <c r="BL10" s="1">
-        <v>-359.937000</v>
+        <v>-359.93700000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>76645.255631</v>
+        <v>76645.255631000007</v>
       </c>
       <c r="BO10" s="1">
-        <v>21.290349</v>
+        <v>21.290348999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1264.430000</v>
+        <v>1264.43</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-566.182000</v>
+        <v>-566.18200000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>76656.560914</v>
+        <v>76656.560914000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>21.293489</v>
+        <v>21.293489000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1410.500000</v>
+        <v>1410.5</v>
       </c>
       <c r="BV10" s="1">
-        <v>-785.746000</v>
+        <v>-785.74599999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>76667.316658</v>
+        <v>76667.316657999996</v>
       </c>
       <c r="BY10" s="1">
-        <v>21.296477</v>
+        <v>21.296476999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1570.040000</v>
+        <v>1570.04</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1015.250000</v>
+        <v>-1015.25</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>76679.109044</v>
+        <v>76679.109043999997</v>
       </c>
       <c r="CD10" s="1">
-        <v>21.299753</v>
+        <v>21.299752999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1971.780000</v>
+        <v>1971.78</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1550.420000</v>
+        <v>-1550.42</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>76506.755249</v>
+        <v>76506.755248999994</v>
       </c>
       <c r="B11" s="1">
-        <v>21.251876</v>
+        <v>21.251875999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>904.362000</v>
+        <v>904.36199999999997</v>
       </c>
       <c r="D11" s="1">
-        <v>-192.967000</v>
+        <v>-192.96700000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>76516.790778</v>
+        <v>76516.790777999995</v>
       </c>
       <c r="G11" s="1">
-        <v>21.254664</v>
+        <v>21.254663999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>921.556000</v>
+        <v>921.55600000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-164.051000</v>
+        <v>-164.05099999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>76527.253387</v>
+        <v>76527.253387000004</v>
       </c>
       <c r="L11" s="1">
-        <v>21.257570</v>
+        <v>21.257570000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>944.140000</v>
+        <v>944.14</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.747000</v>
+        <v>-118.747</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>76537.765116</v>
+        <v>76537.765115999995</v>
       </c>
       <c r="Q11" s="1">
-        <v>21.260490</v>
+        <v>21.260490000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>951.011000</v>
+        <v>951.01099999999997</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.721000</v>
+        <v>-103.721</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>76548.631952</v>
+        <v>76548.631951999996</v>
       </c>
       <c r="V11" s="1">
-        <v>21.263509</v>
+        <v>21.263508999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>957.985000</v>
+        <v>957.98500000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.247100</v>
+        <v>-90.247100000000003</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>76559.161558</v>
+        <v>76559.161558000007</v>
       </c>
       <c r="AA11" s="1">
         <v>21.266434</v>
       </c>
       <c r="AB11" s="1">
-        <v>965.480000</v>
+        <v>965.48</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.740600</v>
+        <v>-80.740600000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>76569.663811</v>
+        <v>76569.663811000006</v>
       </c>
       <c r="AF11" s="1">
         <v>21.269351</v>
       </c>
       <c r="AG11" s="1">
-        <v>970.626000</v>
+        <v>970.62599999999998</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.112700</v>
+        <v>-80.112700000000004</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>76579.878950</v>
+        <v>76579.878949999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>21.272189</v>
+        <v>21.272189000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>978.708000</v>
+        <v>978.70799999999997</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.674600</v>
+        <v>-87.674599999999998</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>76590.282009</v>
+        <v>76590.282009000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>21.275078</v>
+        <v>21.275078000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>987.938000</v>
+        <v>987.93799999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.371000</v>
+        <v>-102.371</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>76601.648826</v>
+        <v>76601.648826000004</v>
       </c>
       <c r="AU11" s="1">
         <v>21.278236</v>
       </c>
       <c r="AV11" s="1">
-        <v>999.370000</v>
+        <v>999.37</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.626000</v>
+        <v>-123.626</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>76612.756730</v>
+        <v>76612.756729999994</v>
       </c>
       <c r="AZ11" s="1">
-        <v>21.281321</v>
+        <v>21.281320999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1008.990000</v>
+        <v>1008.99</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.143000</v>
+        <v>-142.143</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>76623.443068</v>
+        <v>76623.443067999993</v>
       </c>
       <c r="BE11" s="1">
-        <v>21.284290</v>
+        <v>21.284289999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1054.350000</v>
+        <v>1054.3499999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-225.977000</v>
+        <v>-225.977</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>76634.659566</v>
+        <v>76634.659566000002</v>
       </c>
       <c r="BJ11" s="1">
         <v>21.287405</v>
       </c>
       <c r="BK11" s="1">
-        <v>1133.760000</v>
+        <v>1133.76</v>
       </c>
       <c r="BL11" s="1">
-        <v>-359.931000</v>
+        <v>-359.93099999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>76645.676206</v>
+        <v>76645.676206000004</v>
       </c>
       <c r="BO11" s="1">
-        <v>21.290466</v>
+        <v>21.290465999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1264.430000</v>
+        <v>1264.43</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-566.204000</v>
+        <v>-566.20399999999995</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>76656.990449</v>
+        <v>76656.990449000004</v>
       </c>
       <c r="BT11" s="1">
-        <v>21.293608</v>
+        <v>21.293607999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1410.430000</v>
+        <v>1410.43</v>
       </c>
       <c r="BV11" s="1">
-        <v>-785.747000</v>
+        <v>-785.74699999999996</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>76667.747186</v>
+        <v>76667.747185999993</v>
       </c>
       <c r="BY11" s="1">
-        <v>21.296596</v>
+        <v>21.296596000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1569.990000</v>
+        <v>1569.99</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1015.220000</v>
+        <v>-1015.22</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>76679.651665</v>
+        <v>76679.651664999998</v>
       </c>
       <c r="CD11" s="1">
         <v>21.299903</v>
       </c>
       <c r="CE11" s="1">
-        <v>1969.970000</v>
+        <v>1969.97</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1550.480000</v>
+        <v>-1550.48</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>76507.096471</v>
+        <v>76507.096470999997</v>
       </c>
       <c r="B12" s="1">
-        <v>21.251971</v>
+        <v>21.251971000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>904.245000</v>
+        <v>904.245</v>
       </c>
       <c r="D12" s="1">
-        <v>-193.013000</v>
+        <v>-193.01300000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>76517.137016</v>
+        <v>76517.137015999993</v>
       </c>
       <c r="G12" s="1">
-        <v>21.254760</v>
+        <v>21.254760000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>921.139000</v>
+        <v>921.13900000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-164.288000</v>
+        <v>-164.28800000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>76527.949806</v>
+        <v>76527.949806000004</v>
       </c>
       <c r="L12" s="1">
-        <v>21.257764</v>
+        <v>21.257764000000002</v>
       </c>
       <c r="M12" s="1">
-        <v>944.208000</v>
+        <v>944.20799999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.690000</v>
+        <v>-118.69</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>76538.461021</v>
+        <v>76538.461020999996</v>
       </c>
       <c r="Q12" s="1">
-        <v>21.260684</v>
+        <v>21.260684000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>951.053000</v>
+        <v>951.053</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.758000</v>
+        <v>-103.758</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>76548.976670</v>
+        <v>76548.976670000004</v>
       </c>
       <c r="V12" s="1">
-        <v>21.263605</v>
+        <v>21.263604999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>957.825000</v>
+        <v>957.82500000000005</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.293300</v>
+        <v>-90.293300000000002</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>76559.491856</v>
+        <v>76559.491855999993</v>
       </c>
       <c r="AA12" s="1">
-        <v>21.266526</v>
+        <v>21.266525999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>965.467000</v>
+        <v>965.46699999999998</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.710000</v>
+        <v>-80.709999999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>76570.007538</v>
+        <v>76570.007538000005</v>
       </c>
       <c r="AF12" s="1">
         <v>21.269447</v>
       </c>
       <c r="AG12" s="1">
-        <v>970.546000</v>
+        <v>970.54600000000005</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.057400</v>
+        <v>-80.057400000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>76580.538112</v>
+        <v>76580.538111999995</v>
       </c>
       <c r="AK12" s="1">
-        <v>21.272372</v>
+        <v>21.272372000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>978.723000</v>
+        <v>978.72299999999996</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.669600</v>
+        <v>-87.669600000000003</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>76590.967478</v>
+        <v>76590.967478000006</v>
       </c>
       <c r="AP12" s="1">
-        <v>21.275269</v>
+        <v>21.275269000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>987.951000</v>
+        <v>987.95100000000002</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.360000</v>
+        <v>-102.36</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>76602.100718</v>
+        <v>76602.100718000002</v>
       </c>
       <c r="AU12" s="1">
         <v>21.278361</v>
       </c>
       <c r="AV12" s="1">
-        <v>999.353000</v>
+        <v>999.35299999999995</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.603000</v>
+        <v>-123.60299999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>76613.144602</v>
       </c>
       <c r="AZ12" s="1">
-        <v>21.281429</v>
+        <v>21.281428999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1008.980000</v>
+        <v>1008.98</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.158000</v>
+        <v>-142.15799999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>76623.835868</v>
+        <v>76623.835867999995</v>
       </c>
       <c r="BE12" s="1">
-        <v>21.284399</v>
+        <v>21.284399000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1054.350000</v>
+        <v>1054.3499999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-225.985000</v>
+        <v>-225.98500000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>76635.033548</v>
+        <v>76635.033548000007</v>
       </c>
       <c r="BJ12" s="1">
         <v>21.287509</v>
       </c>
       <c r="BK12" s="1">
-        <v>1133.730000</v>
+        <v>1133.73</v>
       </c>
       <c r="BL12" s="1">
-        <v>-359.915000</v>
+        <v>-359.91500000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>76646.106734</v>
+        <v>76646.106734000001</v>
       </c>
       <c r="BO12" s="1">
         <v>21.290585</v>
       </c>
       <c r="BP12" s="1">
-        <v>1264.400000</v>
+        <v>1264.4000000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-566.225000</v>
+        <v>-566.22500000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>76657.425936</v>
       </c>
       <c r="BT12" s="1">
-        <v>21.293729</v>
+        <v>21.293728999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1410.500000</v>
+        <v>1410.5</v>
       </c>
       <c r="BV12" s="1">
-        <v>-785.752000</v>
+        <v>-785.75199999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>76668.163825</v>
+        <v>76668.163824999996</v>
       </c>
       <c r="BY12" s="1">
-        <v>21.296712</v>
+        <v>21.296711999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1569.980000</v>
+        <v>1569.98</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1015.250000</v>
+        <v>-1015.25</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>76680.190348</v>
+        <v>76680.190348000004</v>
       </c>
       <c r="CD12" s="1">
-        <v>21.300053</v>
+        <v>21.300052999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>1971.160000</v>
+        <v>1971.16</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1551.590000</v>
+        <v>-1551.59</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>76507.435733</v>
+        <v>76507.435733000006</v>
       </c>
       <c r="B13" s="1">
-        <v>21.252065</v>
+        <v>21.252065000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>904.210000</v>
+        <v>904.21</v>
       </c>
       <c r="D13" s="1">
-        <v>-192.972000</v>
+        <v>-192.97200000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>76517.830887</v>
+        <v>76517.830887000004</v>
       </c>
       <c r="G13" s="1">
         <v>21.254953</v>
       </c>
       <c r="H13" s="1">
-        <v>921.667000</v>
+        <v>921.66700000000003</v>
       </c>
       <c r="I13" s="1">
-        <v>-164.061000</v>
+        <v>-164.06100000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>76528.300442</v>
+        <v>76528.300442000007</v>
       </c>
       <c r="L13" s="1">
-        <v>21.257861</v>
+        <v>21.257860999999998</v>
       </c>
       <c r="M13" s="1">
-        <v>944.181000</v>
+        <v>944.18100000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.713000</v>
+        <v>-118.71299999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>76538.812156</v>
       </c>
       <c r="Q13" s="1">
-        <v>21.260781</v>
+        <v>21.260781000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>951.079000</v>
+        <v>951.07899999999995</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.795000</v>
+        <v>-103.795</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>76549.320398</v>
+        <v>76549.320397999996</v>
       </c>
       <c r="V13" s="1">
-        <v>21.263700</v>
+        <v>21.2637</v>
       </c>
       <c r="W13" s="1">
-        <v>957.811000</v>
+        <v>957.81100000000004</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.137800</v>
+        <v>-90.137799999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>76560.163441</v>
+        <v>76560.163440999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>21.266712</v>
+        <v>21.266711999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>965.491000</v>
+        <v>965.49099999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.777000</v>
+        <v>-80.777000000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>76570.668242</v>
       </c>
       <c r="AF13" s="1">
-        <v>21.269630</v>
+        <v>21.269629999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>970.680000</v>
+        <v>970.68</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.112700</v>
+        <v>-80.112700000000004</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>76580.927956</v>
       </c>
       <c r="AK13" s="1">
-        <v>21.272480</v>
+        <v>21.272480000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>978.684000</v>
+        <v>978.68399999999997</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.660600</v>
+        <v>-87.660600000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>76591.390070</v>
+        <v>76591.390069999994</v>
       </c>
       <c r="AP13" s="1">
-        <v>21.275386</v>
+        <v>21.275386000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>987.964000</v>
+        <v>987.96400000000006</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.353000</v>
+        <v>-102.35299999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>76602.468744</v>
+        <v>76602.468743999998</v>
       </c>
       <c r="AU13" s="1">
         <v>21.278464</v>
       </c>
       <c r="AV13" s="1">
-        <v>999.362000</v>
+        <v>999.36199999999997</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.613000</v>
+        <v>-123.613</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>76613.502713</v>
+        <v>76613.502712999994</v>
       </c>
       <c r="AZ13" s="1">
-        <v>21.281529</v>
+        <v>21.281528999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1008.980000</v>
+        <v>1008.98</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.147000</v>
+        <v>-142.14699999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>76624.194971</v>
+        <v>76624.194971000004</v>
       </c>
       <c r="BE13" s="1">
         <v>21.284499</v>
       </c>
       <c r="BF13" s="1">
-        <v>1054.350000</v>
+        <v>1054.3499999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-225.989000</v>
+        <v>-225.989</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>76635.467336</v>
+        <v>76635.467336000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>21.287630</v>
+        <v>21.28763</v>
       </c>
       <c r="BK13" s="1">
-        <v>1133.730000</v>
+        <v>1133.73</v>
       </c>
       <c r="BL13" s="1">
-        <v>-359.938000</v>
+        <v>-359.93799999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>76646.497086</v>
+        <v>76646.497086000003</v>
       </c>
       <c r="BO13" s="1">
-        <v>21.290694</v>
+        <v>21.290693999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1264.390000</v>
+        <v>1264.3900000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-566.210000</v>
+        <v>-566.21</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>76657.819264</v>
+        <v>76657.819264000005</v>
       </c>
       <c r="BT13" s="1">
-        <v>21.293839</v>
+        <v>21.293838999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>1410.490000</v>
+        <v>1410.49</v>
       </c>
       <c r="BV13" s="1">
-        <v>-785.766000</v>
+        <v>-785.76599999999996</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>76668.581294</v>
+        <v>76668.581294000003</v>
       </c>
       <c r="BY13" s="1">
-        <v>21.296828</v>
+        <v>21.296828000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1569.940000</v>
+        <v>1569.94</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1015.200000</v>
+        <v>-1015.2</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>76680.730465</v>
+        <v>76680.730465000001</v>
       </c>
       <c r="CD13" s="1">
         <v>21.300203</v>
       </c>
       <c r="CE13" s="1">
-        <v>1970.750000</v>
+        <v>1970.75</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1549.730000</v>
+        <v>-1549.73</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>76508.121206</v>
+        <v>76508.121205999996</v>
       </c>
       <c r="B14" s="1">
-        <v>21.252256</v>
+        <v>21.252255999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>904.292000</v>
+        <v>904.29200000000003</v>
       </c>
       <c r="D14" s="1">
-        <v>-193.022000</v>
+        <v>-193.02199999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>76518.177095</v>
+        <v>76518.177095000006</v>
       </c>
       <c r="G14" s="1">
         <v>21.255049</v>
       </c>
       <c r="H14" s="1">
-        <v>922.014000</v>
+        <v>922.01400000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-164.318000</v>
+        <v>-164.31800000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>76528.646153</v>
+        <v>76528.646152999994</v>
       </c>
       <c r="L14" s="1">
-        <v>21.257957</v>
+        <v>21.257957000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>944.144000</v>
+        <v>944.14400000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.717000</v>
+        <v>-118.717</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>76539.161835</v>
+        <v>76539.161835000006</v>
       </c>
       <c r="Q14" s="1">
-        <v>21.260878</v>
+        <v>21.260878000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>951.038000</v>
+        <v>951.03800000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.768000</v>
+        <v>-103.768</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>76549.977101</v>
+        <v>76549.977100999997</v>
       </c>
       <c r="V14" s="1">
         <v>21.263883</v>
       </c>
       <c r="W14" s="1">
-        <v>957.836000</v>
+        <v>957.83600000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.346700</v>
+        <v>-90.346699999999998</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>76560.538912</v>
+        <v>76560.538912000004</v>
       </c>
       <c r="AA14" s="1">
-        <v>21.266816</v>
+        <v>21.266815999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>965.490000</v>
+        <v>965.49</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.682400</v>
+        <v>-80.682400000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>76571.038257</v>
+        <v>76571.038256999993</v>
       </c>
       <c r="AF14" s="1">
-        <v>21.269733</v>
+        <v>21.269732999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>970.606000</v>
+        <v>970.60599999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.182700</v>
+        <v>-80.182699999999997</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>76581.274164</v>
+        <v>76581.274164000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>21.272576</v>
+        <v>21.272576000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>978.712000</v>
+        <v>978.71199999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.662000</v>
+        <v>-87.662000000000006</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>76591.748182</v>
+        <v>76591.748181999996</v>
       </c>
       <c r="AP14" s="1">
-        <v>21.275486</v>
+        <v>21.275486000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>987.942000</v>
+        <v>987.94200000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.364000</v>
+        <v>-102.364</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>76602.833302</v>
+        <v>76602.833301999999</v>
       </c>
       <c r="AU14" s="1">
         <v>21.278565</v>
       </c>
       <c r="AV14" s="1">
-        <v>999.337000</v>
+        <v>999.33699999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.627000</v>
+        <v>-123.627</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>76613.924808</v>
+        <v>76613.924807999996</v>
       </c>
       <c r="AZ14" s="1">
-        <v>21.281646</v>
+        <v>21.281645999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1009.000000</v>
+        <v>1009</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.150000</v>
+        <v>-142.15</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>76624.630954</v>
+        <v>76624.630953999993</v>
       </c>
       <c r="BE14" s="1">
-        <v>21.284620</v>
+        <v>21.28462</v>
       </c>
       <c r="BF14" s="1">
-        <v>1054.350000</v>
+        <v>1054.3499999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-225.961000</v>
+        <v>-225.96100000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>76635.794940</v>
+        <v>76635.794940000007</v>
       </c>
       <c r="BJ14" s="1">
-        <v>21.287721</v>
+        <v>21.287721000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1133.720000</v>
+        <v>1133.72</v>
       </c>
       <c r="BL14" s="1">
-        <v>-359.947000</v>
+        <v>-359.947</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>76646.890908</v>
+        <v>76646.890908000001</v>
       </c>
       <c r="BO14" s="1">
         <v>21.290803</v>
       </c>
       <c r="BP14" s="1">
-        <v>1264.380000</v>
+        <v>1264.3800000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-566.246000</v>
+        <v>-566.24599999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>76658.234414</v>
+        <v>76658.234414000006</v>
       </c>
       <c r="BT14" s="1">
-        <v>21.293954</v>
+        <v>21.293953999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1410.520000</v>
+        <v>1410.52</v>
       </c>
       <c r="BV14" s="1">
-        <v>-785.778000</v>
+        <v>-785.77800000000002</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>76669.027888</v>
+        <v>76669.027887999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>21.296952</v>
+        <v>21.296952000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1570.060000</v>
+        <v>1570.06</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1015.270000</v>
+        <v>-1015.27</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>76681.272592</v>
+        <v>76681.272591999994</v>
       </c>
       <c r="CD14" s="1">
-        <v>21.300353</v>
+        <v>21.300353000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1970.380000</v>
+        <v>1970.38</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1551.750000</v>
+        <v>-1551.75</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>76508.468901</v>
       </c>
       <c r="B15" s="1">
-        <v>21.252352</v>
+        <v>21.252351999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>904.186000</v>
+        <v>904.18600000000004</v>
       </c>
       <c r="D15" s="1">
-        <v>-193.002000</v>
+        <v>-193.00200000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>76518.520326</v>
+        <v>76518.520325999998</v>
       </c>
       <c r="G15" s="1">
-        <v>21.255145</v>
+        <v>21.255144999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>921.350000</v>
+        <v>921.35</v>
       </c>
       <c r="I15" s="1">
-        <v>-164.758000</v>
+        <v>-164.75800000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>76529.306331</v>
       </c>
       <c r="L15" s="1">
-        <v>21.258141</v>
+        <v>21.258140999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>944.137000</v>
+        <v>944.13699999999994</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.815000</v>
+        <v>-118.815</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>76539.817578</v>
+        <v>76539.817578000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>21.261060</v>
+        <v>21.261060000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>951.016000</v>
+        <v>951.01599999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.806000</v>
+        <v>-103.806</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>76550.349101</v>
       </c>
       <c r="V15" s="1">
-        <v>21.263986</v>
+        <v>21.263985999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>957.917000</v>
+        <v>957.91700000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.119600</v>
+        <v>-90.119600000000005</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>76560.888590</v>
+        <v>76560.888590000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>21.266913</v>
+        <v>21.266912999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>965.548000</v>
+        <v>965.548</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.739500</v>
+        <v>-80.739500000000007</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>76571.380465</v>
+        <v>76571.380464999995</v>
       </c>
       <c r="AF15" s="1">
         <v>21.269828</v>
       </c>
       <c r="AG15" s="1">
-        <v>970.624000</v>
+        <v>970.62400000000002</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.174900</v>
+        <v>-80.174899999999994</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>76581.623843</v>
+        <v>76581.623842999994</v>
       </c>
       <c r="AK15" s="1">
-        <v>21.272673</v>
+        <v>21.272673000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>978.702000</v>
+        <v>978.702</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.663700</v>
+        <v>-87.663700000000006</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>76592.109305</v>
+        <v>76592.109305000005</v>
       </c>
       <c r="AP15" s="1">
-        <v>21.275586</v>
+        <v>21.275586000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>987.956000</v>
+        <v>987.95600000000002</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.376000</v>
+        <v>-102.376</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>76603.262341</v>
+        <v>76603.262340999994</v>
       </c>
       <c r="AU15" s="1">
-        <v>21.278684</v>
+        <v>21.278683999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>999.357000</v>
+        <v>999.35699999999997</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.611000</v>
+        <v>-123.611</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>76614.220456</v>
+        <v>76614.220455999995</v>
       </c>
       <c r="AZ15" s="1">
-        <v>21.281728</v>
+        <v>21.281728000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1008.990000</v>
+        <v>1008.99</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.131000</v>
+        <v>-142.131</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>76624.921113</v>
+        <v>76624.921113000004</v>
       </c>
       <c r="BE15" s="1">
-        <v>21.284700</v>
+        <v>21.284700000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1054.340000</v>
+        <v>1054.3399999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-225.975000</v>
+        <v>-225.97499999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>76636.185291</v>
+        <v>76636.185291000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>21.287829</v>
+        <v>21.287828999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1133.720000</v>
+        <v>1133.72</v>
       </c>
       <c r="BL15" s="1">
-        <v>-359.927000</v>
+        <v>-359.92700000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>76647.313518</v>
+        <v>76647.313517999995</v>
       </c>
       <c r="BO15" s="1">
-        <v>21.290920</v>
+        <v>21.29092</v>
       </c>
       <c r="BP15" s="1">
-        <v>1264.400000</v>
+        <v>1264.4000000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-566.206000</v>
+        <v>-566.20600000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>76658.648668</v>
+        <v>76658.648667999994</v>
       </c>
       <c r="BT15" s="1">
         <v>21.294069</v>
       </c>
       <c r="BU15" s="1">
-        <v>1410.540000</v>
+        <v>1410.54</v>
       </c>
       <c r="BV15" s="1">
-        <v>-785.761000</v>
+        <v>-785.76099999999997</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>76669.456895</v>
+        <v>76669.456894999996</v>
       </c>
       <c r="BY15" s="1">
-        <v>21.297071</v>
+        <v>21.297070999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1569.950000</v>
+        <v>1569.95</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1015.160000</v>
+        <v>-1015.16</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>76681.810286</v>
+        <v>76681.810286000007</v>
       </c>
       <c r="CD15" s="1">
-        <v>21.300503</v>
+        <v>21.300502999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1971.650000</v>
+        <v>1971.65</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1550.350000</v>
+        <v>-1550.35</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>76508.806179</v>
+        <v>76508.806179000007</v>
       </c>
       <c r="B16" s="1">
-        <v>21.252446</v>
+        <v>21.252445999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>904.232000</v>
+        <v>904.23199999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-193.114000</v>
+        <v>-193.114</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>76519.179015</v>
+        <v>76519.179015000002</v>
       </c>
       <c r="G16" s="1">
-        <v>21.255328</v>
+        <v>21.255327999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>921.294000</v>
+        <v>921.29399999999998</v>
       </c>
       <c r="I16" s="1">
-        <v>-164.736000</v>
+        <v>-164.73599999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>76529.680841</v>
+        <v>76529.680840999994</v>
       </c>
       <c r="L16" s="1">
-        <v>21.258245</v>
+        <v>21.258244999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>944.150000</v>
+        <v>944.15</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.846000</v>
+        <v>-118.846</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>76540.206907</v>
       </c>
       <c r="Q16" s="1">
-        <v>21.261169</v>
+        <v>21.261168999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>951.034000</v>
+        <v>951.03399999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.754000</v>
+        <v>-103.754</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>76550.695804</v>
+        <v>76550.695804000003</v>
       </c>
       <c r="V16" s="1">
-        <v>21.264082</v>
+        <v>21.264081999999998</v>
       </c>
       <c r="W16" s="1">
-        <v>957.809000</v>
+        <v>957.80899999999997</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.181900</v>
+        <v>-90.181899999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>76561.234798</v>
+        <v>76561.234798000005</v>
       </c>
       <c r="AA16" s="1">
-        <v>21.267010</v>
+        <v>21.267009999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>965.455000</v>
+        <v>965.45500000000004</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.705900</v>
+        <v>-80.7059</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>76571.731136</v>
+        <v>76571.731136000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>21.269925</v>
+        <v>21.269925000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>970.631000</v>
+        <v>970.63099999999997</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.142600</v>
+        <v>-80.142600000000002</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>76582.051890</v>
+        <v>76582.051890000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>21.272792</v>
+        <v>21.272791999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>978.713000</v>
+        <v>978.71299999999997</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.660200</v>
+        <v>-87.660200000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>76592.834917</v>
       </c>
       <c r="AP16" s="1">
-        <v>21.275787</v>
+        <v>21.275787000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>987.949000</v>
+        <v>987.94899999999996</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.370000</v>
+        <v>-102.37</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>76603.561398</v>
+        <v>76603.561398000005</v>
       </c>
       <c r="AU16" s="1">
-        <v>21.278767</v>
+        <v>21.278766999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>999.357000</v>
+        <v>999.35699999999997</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.624000</v>
+        <v>-123.624</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>76614.580024</v>
+        <v>76614.580023999995</v>
       </c>
       <c r="AZ16" s="1">
-        <v>21.281828</v>
+        <v>21.281828000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1008.980000</v>
+        <v>1008.98</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.134000</v>
+        <v>-142.13399999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>76625.279225</v>
+        <v>76625.279225000006</v>
       </c>
       <c r="BE16" s="1">
-        <v>21.284800</v>
+        <v>21.284800000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1054.340000</v>
+        <v>1054.3399999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-225.965000</v>
+        <v>-225.965</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>76636.559242</v>
+        <v>76636.559242000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>21.287933</v>
+        <v>21.287932999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1133.720000</v>
+        <v>1133.72</v>
       </c>
       <c r="BL16" s="1">
-        <v>-359.919000</v>
+        <v>-359.91899999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>76648.129419</v>
+        <v>76648.129419000004</v>
       </c>
       <c r="BO16" s="1">
-        <v>21.291147</v>
+        <v>21.291146999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1264.380000</v>
+        <v>1264.3800000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-566.216000</v>
+        <v>-566.21600000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>76659.089517</v>
       </c>
       <c r="BT16" s="1">
-        <v>21.294192</v>
+        <v>21.294191999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1410.530000</v>
+        <v>1410.53</v>
       </c>
       <c r="BV16" s="1">
-        <v>-785.818000</v>
+        <v>-785.81799999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>76669.871550</v>
+        <v>76669.871549999996</v>
       </c>
       <c r="BY16" s="1">
-        <v>21.297187</v>
+        <v>21.297187000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1570.030000</v>
+        <v>1570.03</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1015.160000</v>
+        <v>-1015.16</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>76682.350398</v>
+        <v>76682.350397999995</v>
       </c>
       <c r="CD16" s="1">
-        <v>21.300653</v>
+        <v>21.300653000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1970.050000</v>
+        <v>1970.05</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1550.660000</v>
+        <v>-1550.66</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>76509.258035</v>
+        <v>76509.258035000006</v>
       </c>
       <c r="B17" s="1">
-        <v>21.252572</v>
+        <v>21.252572000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>904.111000</v>
+        <v>904.11099999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-193.013000</v>
+        <v>-193.01300000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>76519.555509</v>
+        <v>76519.555508999998</v>
       </c>
       <c r="G17" s="1">
-        <v>21.255432</v>
+        <v>21.255431999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>921.159000</v>
+        <v>921.15899999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-164.686000</v>
+        <v>-164.68600000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>76530.029495</v>
+        <v>76530.029494999995</v>
       </c>
       <c r="L17" s="1">
-        <v>21.258342</v>
+        <v>21.258341999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>944.069000</v>
+        <v>944.06899999999996</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.824000</v>
+        <v>-118.824</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>76540.554603</v>
+        <v>76540.554602999997</v>
       </c>
       <c r="Q17" s="1">
-        <v>21.261265</v>
+        <v>21.261265000000002</v>
       </c>
       <c r="R17" s="1">
-        <v>951.072000</v>
+        <v>951.072</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.727000</v>
+        <v>-103.727</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>76551.045484</v>
+        <v>76551.045484000002</v>
       </c>
       <c r="V17" s="1">
-        <v>21.264179</v>
+        <v>21.264178999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>957.871000</v>
+        <v>957.87099999999998</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.191100</v>
+        <v>-90.191100000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>76561.660365</v>
+        <v>76561.660365000003</v>
       </c>
       <c r="AA17" s="1">
         <v>21.267128</v>
       </c>
       <c r="AB17" s="1">
-        <v>965.538000</v>
+        <v>965.53800000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.686600</v>
+        <v>-80.686599999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>76572.153728</v>
+        <v>76572.153728000005</v>
       </c>
       <c r="AF17" s="1">
-        <v>21.270043</v>
+        <v>21.270043000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>970.562000</v>
+        <v>970.56200000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.165000</v>
+        <v>-80.165000000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>76582.331634</v>
+        <v>76582.331634000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>21.272870</v>
+        <v>21.272870000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>978.695000</v>
+        <v>978.69500000000005</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.693000</v>
+        <v>-87.692999999999998</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>76593.210389</v>
       </c>
       <c r="AP17" s="1">
-        <v>21.275892</v>
+        <v>21.275891999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>987.967000</v>
+        <v>987.96699999999998</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.360000</v>
+        <v>-102.36</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>76603.926950</v>
+        <v>76603.926949999994</v>
       </c>
       <c r="AU17" s="1">
         <v>21.278869</v>
       </c>
       <c r="AV17" s="1">
-        <v>999.369000</v>
+        <v>999.36900000000003</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.616000</v>
+        <v>-123.616</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>76614.938135</v>
+        <v>76614.938135000004</v>
       </c>
       <c r="AZ17" s="1">
         <v>21.281927</v>
       </c>
       <c r="BA17" s="1">
-        <v>1008.980000</v>
+        <v>1008.98</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.139000</v>
+        <v>-142.13900000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>76625.653246</v>
+        <v>76625.653246000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>21.284904</v>
+        <v>21.284904000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1054.340000</v>
+        <v>1054.3399999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-225.976000</v>
+        <v>-225.976</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>76637.308698</v>
+        <v>76637.308697999993</v>
       </c>
       <c r="BJ17" s="1">
         <v>21.288141</v>
       </c>
       <c r="BK17" s="1">
-        <v>1133.720000</v>
+        <v>1133.72</v>
       </c>
       <c r="BL17" s="1">
-        <v>-359.928000</v>
+        <v>-359.928</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>76648.547546</v>
+        <v>76648.547546000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>21.291263</v>
+        <v>21.291263000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1264.400000</v>
+        <v>1264.4000000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-566.227000</v>
+        <v>-566.22699999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>76659.515118</v>
+        <v>76659.515117999996</v>
       </c>
       <c r="BT17" s="1">
-        <v>21.294310</v>
+        <v>21.294309999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1410.600000</v>
+        <v>1410.6</v>
       </c>
       <c r="BV17" s="1">
-        <v>-785.761000</v>
+        <v>-785.76099999999997</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>76670.318974</v>
+        <v>76670.318973999994</v>
       </c>
       <c r="BY17" s="1">
-        <v>21.297311</v>
+        <v>21.297311000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1570.010000</v>
+        <v>1570.01</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1015.170000</v>
+        <v>-1015.17</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>76683.201532</v>
+        <v>76683.201532000006</v>
       </c>
       <c r="CD17" s="1">
-        <v>21.300889</v>
+        <v>21.300889000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>1971.150000</v>
+        <v>1971.15</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1550.100000</v>
+        <v>-1550.1</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>76509.507523</v>
+        <v>76509.507522999993</v>
       </c>
       <c r="B18" s="1">
-        <v>21.252641</v>
+        <v>21.252641000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>904.233000</v>
+        <v>904.23299999999995</v>
       </c>
       <c r="D18" s="1">
-        <v>-193.081000</v>
+        <v>-193.08099999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>76519.900197</v>
+        <v>76519.900196999995</v>
       </c>
       <c r="G18" s="1">
-        <v>21.255528</v>
+        <v>21.255528000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>921.018000</v>
+        <v>921.01800000000003</v>
       </c>
       <c r="I18" s="1">
-        <v>-163.721000</v>
+        <v>-163.721</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>76530.378182</v>
       </c>
       <c r="L18" s="1">
-        <v>21.258438</v>
+        <v>21.258438000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>944.048000</v>
+        <v>944.048</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.848000</v>
+        <v>-118.848</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>76540.904777</v>
+        <v>76540.904777000003</v>
       </c>
       <c r="Q18" s="1">
-        <v>21.261362</v>
+        <v>21.261361999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>951.076000</v>
+        <v>951.07600000000002</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.755000</v>
+        <v>-103.755</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>76551.468112</v>
+        <v>76551.468112000002</v>
       </c>
       <c r="V18" s="1">
-        <v>21.264297</v>
+        <v>21.264296999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>957.941000</v>
+        <v>957.94100000000003</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.282100</v>
+        <v>-90.2821</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>76561.930189</v>
+        <v>76561.930189000006</v>
       </c>
       <c r="AA18" s="1">
-        <v>21.267203</v>
+        <v>21.267202999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>965.460000</v>
+        <v>965.46</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.624100</v>
+        <v>-80.624099999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>76572.434495</v>
+        <v>76572.434494999994</v>
       </c>
       <c r="AF18" s="1">
         <v>21.270121</v>
       </c>
       <c r="AG18" s="1">
-        <v>970.618000</v>
+        <v>970.61800000000005</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.177700</v>
+        <v>-80.177700000000002</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>76582.679869</v>
       </c>
       <c r="AK18" s="1">
-        <v>21.272967</v>
+        <v>21.272967000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>978.713000</v>
+        <v>978.71299999999997</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.700600</v>
+        <v>-87.700599999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>76593.570483</v>
+        <v>76593.570483000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>21.275992</v>
+        <v>21.275991999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>987.943000</v>
+        <v>987.94299999999998</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.345000</v>
+        <v>-102.345</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>76604.288533</v>
+        <v>76604.288532999999</v>
       </c>
       <c r="AU18" s="1">
         <v>21.278969</v>
       </c>
       <c r="AV18" s="1">
-        <v>999.357000</v>
+        <v>999.35699999999997</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.615000</v>
+        <v>-123.61499999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>76615.660310</v>
+        <v>76615.660310000007</v>
       </c>
       <c r="AZ18" s="1">
         <v>21.282128</v>
       </c>
       <c r="BA18" s="1">
-        <v>1008.990000</v>
+        <v>1008.99</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.137000</v>
+        <v>-142.137</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>76626.383816</v>
+        <v>76626.383816000001</v>
       </c>
       <c r="BE18" s="1">
         <v>21.285107</v>
       </c>
       <c r="BF18" s="1">
-        <v>1054.340000</v>
+        <v>1054.3399999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-225.978000</v>
+        <v>-225.97800000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>76637.683673</v>
+        <v>76637.683673000007</v>
       </c>
       <c r="BJ18" s="1">
         <v>21.288245</v>
       </c>
       <c r="BK18" s="1">
-        <v>1133.720000</v>
+        <v>1133.72</v>
       </c>
       <c r="BL18" s="1">
-        <v>-359.922000</v>
+        <v>-359.92200000000003</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>76648.942891</v>
+        <v>76648.942890999999</v>
       </c>
       <c r="BO18" s="1">
         <v>21.291373</v>
       </c>
       <c r="BP18" s="1">
-        <v>1264.360000</v>
+        <v>1264.3599999999999</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-566.236000</v>
+        <v>-566.23599999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>76659.957020</v>
+        <v>76659.957020000002</v>
       </c>
       <c r="BT18" s="1">
-        <v>21.294433</v>
+        <v>21.294433000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1410.520000</v>
+        <v>1410.52</v>
       </c>
       <c r="BV18" s="1">
-        <v>-785.809000</v>
+        <v>-785.80899999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>76671.069420</v>
+        <v>76671.06942</v>
       </c>
       <c r="BY18" s="1">
-        <v>21.297519</v>
+        <v>21.297519000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1570.090000</v>
+        <v>1570.09</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1015.210000</v>
+        <v>-1015.21</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>76683.429197</v>
+        <v>76683.429197000005</v>
       </c>
       <c r="CD18" s="1">
         <v>21.300953</v>
       </c>
       <c r="CE18" s="1">
-        <v>1971.310000</v>
+        <v>1971.31</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1550.090000</v>
+        <v>-1550.09</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>76509.849762</v>
+        <v>76509.849761999998</v>
       </c>
       <c r="B19" s="1">
-        <v>21.252736</v>
+        <v>21.252735999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>904.181000</v>
+        <v>904.18100000000004</v>
       </c>
       <c r="D19" s="1">
-        <v>-193.162000</v>
+        <v>-193.16200000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>76520.241940</v>
+        <v>76520.241940000007</v>
       </c>
       <c r="G19" s="1">
         <v>21.255623</v>
       </c>
       <c r="H19" s="1">
-        <v>921.216000</v>
+        <v>921.21600000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-164.404000</v>
+        <v>-164.404</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>76530.834007</v>
+        <v>76530.834006999998</v>
       </c>
       <c r="L19" s="1">
-        <v>21.258565</v>
+        <v>21.258565000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>944.113000</v>
+        <v>944.11300000000006</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.767000</v>
+        <v>-118.767</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>76541.340264</v>
+        <v>76541.340263999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>21.261483</v>
+        <v>21.261482999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>951.067000</v>
+        <v>951.06700000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.786000</v>
+        <v>-103.786</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>76551.748810</v>
+        <v>76551.748810000005</v>
       </c>
       <c r="V19" s="1">
-        <v>21.264375</v>
+        <v>21.264375000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>957.891000</v>
+        <v>957.89099999999996</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.241200</v>
+        <v>-90.241200000000006</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>76562.282876</v>
+        <v>76562.282875999997</v>
       </c>
       <c r="AA19" s="1">
         <v>21.267301</v>
       </c>
       <c r="AB19" s="1">
-        <v>965.433000</v>
+        <v>965.43299999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.690800</v>
+        <v>-80.690799999999996</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>76572.777198</v>
+        <v>76572.777197999996</v>
       </c>
       <c r="AF19" s="1">
-        <v>21.270216</v>
+        <v>21.270216000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>970.609000</v>
+        <v>970.60900000000004</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.165900</v>
+        <v>-80.165899999999993</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>76583.028513</v>
+        <v>76583.028512999997</v>
       </c>
       <c r="AK19" s="1">
         <v>21.273063</v>
       </c>
       <c r="AL19" s="1">
-        <v>978.700000</v>
+        <v>978.7</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.661500</v>
+        <v>-87.661500000000004</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>76594.294642</v>
+        <v>76594.294641999993</v>
       </c>
       <c r="AP19" s="1">
-        <v>21.276193</v>
+        <v>21.276192999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>987.950000</v>
+        <v>987.95</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.353000</v>
+        <v>-102.35299999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>76605.028068</v>
       </c>
       <c r="AU19" s="1">
-        <v>21.279174</v>
+        <v>21.279174000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>999.362000</v>
+        <v>999.36199999999997</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.619000</v>
+        <v>-123.619</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>76616.037766</v>
+        <v>76616.037765999994</v>
       </c>
       <c r="AZ19" s="1">
-        <v>21.282233</v>
+        <v>21.282233000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1008.960000</v>
+        <v>1008.96</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.148000</v>
+        <v>-142.148</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>76626.768218</v>
+        <v>76626.768217999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>21.285213</v>
+        <v>21.285212999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1054.340000</v>
+        <v>1054.3399999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-225.982000</v>
+        <v>-225.982</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>76638.061129</v>
+        <v>76638.061128999994</v>
       </c>
       <c r="BJ19" s="1">
-        <v>21.288350</v>
+        <v>21.288350000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1133.720000</v>
+        <v>1133.72</v>
       </c>
       <c r="BL19" s="1">
-        <v>-359.943000</v>
+        <v>-359.94299999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>76649.691817</v>
+        <v>76649.691816999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>21.291581</v>
+        <v>21.291581000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1264.390000</v>
+        <v>1264.3900000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-566.193000</v>
+        <v>-566.19299999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>76660.406891</v>
+        <v>76660.406891000006</v>
       </c>
       <c r="BT19" s="1">
-        <v>21.294557</v>
+        <v>21.294557000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1410.560000</v>
+        <v>1410.56</v>
       </c>
       <c r="BV19" s="1">
-        <v>-785.743000</v>
+        <v>-785.74300000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>76671.184957</v>
+        <v>76671.184957000005</v>
       </c>
       <c r="BY19" s="1">
-        <v>21.297551</v>
+        <v>21.297550999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1569.930000</v>
+        <v>1569.93</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1015.160000</v>
+        <v>-1015.16</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>76683.946524</v>
+        <v>76683.946523999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>21.301096</v>
+        <v>21.301096000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1969.830000</v>
+        <v>1969.83</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1550.380000</v>
+        <v>-1550.38</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>76510.273345</v>
+        <v>76510.273344999994</v>
       </c>
       <c r="B20" s="1">
-        <v>21.252854</v>
+        <v>21.252853999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>904.109000</v>
+        <v>904.10900000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-192.911000</v>
+        <v>-192.911</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>76520.665523</v>
+        <v>76520.665523000003</v>
       </c>
       <c r="G20" s="1">
-        <v>21.255740</v>
+        <v>21.255739999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>921.560000</v>
+        <v>921.56</v>
       </c>
       <c r="I20" s="1">
-        <v>-164.769000</v>
+        <v>-164.76900000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>76531.078534</v>
@@ -5137,754 +5553,754 @@
         <v>21.258633</v>
       </c>
       <c r="M20" s="1">
-        <v>944.199000</v>
+        <v>944.19899999999996</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.723000</v>
+        <v>-118.723</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>76541.608610</v>
+        <v>76541.608609999996</v>
       </c>
       <c r="Q20" s="1">
-        <v>21.261558</v>
+        <v>21.261558000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>951.066000</v>
+        <v>951.06600000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.803000</v>
+        <v>-103.803</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>76552.092538</v>
+        <v>76552.092537999997</v>
       </c>
       <c r="V20" s="1">
-        <v>21.264470</v>
+        <v>21.264469999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>957.972000</v>
+        <v>957.97199999999998</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.210100</v>
+        <v>-90.210099999999997</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>76562.632524</v>
+        <v>76562.632524000001</v>
       </c>
       <c r="AA20" s="1">
         <v>21.267398</v>
       </c>
       <c r="AB20" s="1">
-        <v>965.447000</v>
+        <v>965.447</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.735300</v>
+        <v>-80.735299999999995</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>76573.120927</v>
+        <v>76573.120926999996</v>
       </c>
       <c r="AF20" s="1">
         <v>21.270311</v>
       </c>
       <c r="AG20" s="1">
-        <v>970.636000</v>
+        <v>970.63599999999997</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.179000</v>
+        <v>-80.179000000000002</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>76583.725888</v>
+        <v>76583.725888000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>21.273257</v>
+        <v>21.273257000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>978.707000</v>
+        <v>978.70699999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.682600</v>
+        <v>-87.682599999999994</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>76594.654242</v>
+        <v>76594.654242000004</v>
       </c>
       <c r="AP20" s="1">
-        <v>21.276293</v>
+        <v>21.276292999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>987.953000</v>
+        <v>987.95299999999997</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.359000</v>
+        <v>-102.35899999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>76605.410979</v>
+        <v>76605.410978999993</v>
       </c>
       <c r="AU20" s="1">
-        <v>21.279281</v>
+        <v>21.279281000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>999.338000</v>
+        <v>999.33799999999997</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.611000</v>
+        <v>-123.611</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>76616.425638</v>
+        <v>76616.425638000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>21.282340</v>
+        <v>21.282340000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1008.990000</v>
+        <v>1008.99</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.141000</v>
+        <v>-142.14099999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>76627.442278</v>
+        <v>76627.442278000002</v>
       </c>
       <c r="BE20" s="1">
         <v>21.285401</v>
       </c>
       <c r="BF20" s="1">
-        <v>1054.350000</v>
+        <v>1054.3499999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-225.970000</v>
+        <v>-225.97</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>76638.756521</v>
+        <v>76638.756521000003</v>
       </c>
       <c r="BJ20" s="1">
-        <v>21.288543</v>
+        <v>21.288543000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1133.710000</v>
+        <v>1133.71</v>
       </c>
       <c r="BL20" s="1">
-        <v>-359.931000</v>
+        <v>-359.93099999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>76650.184840</v>
+        <v>76650.184840000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>21.291718</v>
+        <v>21.291717999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1264.340000</v>
+        <v>1264.3399999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-566.185000</v>
+        <v>-566.18499999999995</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>76660.786828</v>
+        <v>76660.786827999997</v>
       </c>
       <c r="BT20" s="1">
         <v>21.294663</v>
       </c>
       <c r="BU20" s="1">
-        <v>1410.470000</v>
+        <v>1410.47</v>
       </c>
       <c r="BV20" s="1">
-        <v>-785.807000</v>
+        <v>-785.80700000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>76671.609532</v>
+        <v>76671.609532000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>21.297669</v>
+        <v>21.297668999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1569.890000</v>
+        <v>1569.89</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1015.230000</v>
+        <v>-1015.23</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>76684.468315</v>
+        <v>76684.468315000006</v>
       </c>
       <c r="CD20" s="1">
-        <v>21.301241</v>
+        <v>21.301241000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1969.940000</v>
+        <v>1969.94</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1550.100000</v>
+        <v>-1550.1</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>76510.549121</v>
+        <v>76510.549121000004</v>
       </c>
       <c r="B21" s="1">
-        <v>21.252930</v>
+        <v>21.252929999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>904.356000</v>
+        <v>904.35599999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-193.131000</v>
+        <v>-193.131</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>76520.934392</v>
+        <v>76520.934391999996</v>
       </c>
       <c r="G21" s="1">
-        <v>21.255815</v>
+        <v>21.255814999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>921.317000</v>
+        <v>921.31700000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-164.557000</v>
+        <v>-164.55699999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>76531.424245</v>
+        <v>76531.424245000002</v>
       </c>
       <c r="L21" s="1">
-        <v>21.258729</v>
+        <v>21.258728999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>944.182000</v>
+        <v>944.18200000000002</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.812000</v>
+        <v>-118.812</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>76541.958280</v>
+        <v>76541.958280000006</v>
       </c>
       <c r="Q21" s="1">
-        <v>21.261655</v>
+        <v>21.261655000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>951.034000</v>
+        <v>951.03399999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.787000</v>
+        <v>-103.78700000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>76552.439738</v>
+        <v>76552.439738000001</v>
       </c>
       <c r="V21" s="1">
         <v>21.264567</v>
       </c>
       <c r="W21" s="1">
-        <v>957.824000</v>
+        <v>957.82399999999996</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.287200</v>
+        <v>-90.287199999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>76563.329900</v>
+        <v>76563.329899999997</v>
       </c>
       <c r="AA21" s="1">
         <v>21.267592</v>
       </c>
       <c r="AB21" s="1">
-        <v>965.499000</v>
+        <v>965.49900000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.765500</v>
+        <v>-80.765500000000003</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>76573.805410</v>
+        <v>76573.805410000001</v>
       </c>
       <c r="AF21" s="1">
         <v>21.270502</v>
       </c>
       <c r="AG21" s="1">
-        <v>970.631000</v>
+        <v>970.63099999999997</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.160600</v>
+        <v>-80.160600000000002</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>76584.074080</v>
+        <v>76584.074080000006</v>
       </c>
       <c r="AK21" s="1">
-        <v>21.273354</v>
+        <v>21.273354000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>978.712000</v>
+        <v>978.71199999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.671100</v>
+        <v>-87.671099999999996</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>76595.013842</v>
       </c>
       <c r="AP21" s="1">
-        <v>21.276393</v>
+        <v>21.276392999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>987.975000</v>
+        <v>987.97500000000002</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.375000</v>
+        <v>-102.375</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>76605.773592</v>
+        <v>76605.773591999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>21.279382</v>
+        <v>21.279381999999998</v>
       </c>
       <c r="AV21" s="1">
-        <v>999.355000</v>
+        <v>999.35500000000002</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.622000</v>
+        <v>-123.622</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>76617.101685</v>
+        <v>76617.101685000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>21.282528</v>
+        <v>21.282527999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1008.980000</v>
+        <v>1008.98</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.155000</v>
+        <v>-142.155</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>76627.847511</v>
       </c>
       <c r="BE21" s="1">
-        <v>21.285513</v>
+        <v>21.285513000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1054.330000</v>
+        <v>1054.33</v>
       </c>
       <c r="BG21" s="1">
-        <v>-225.959000</v>
+        <v>-225.959</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>76639.185063</v>
+        <v>76639.185062999997</v>
       </c>
       <c r="BJ21" s="1">
         <v>21.288663</v>
       </c>
       <c r="BK21" s="1">
-        <v>1133.700000</v>
+        <v>1133.7</v>
       </c>
       <c r="BL21" s="1">
-        <v>-359.925000</v>
+        <v>-359.92500000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>76650.602471</v>
+        <v>76650.602471000006</v>
       </c>
       <c r="BO21" s="1">
-        <v>21.291834</v>
+        <v>21.291834000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1264.350000</v>
+        <v>1264.3499999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-566.179000</v>
+        <v>-566.17899999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>76661.200491</v>
+        <v>76661.200490999996</v>
       </c>
       <c r="BT21" s="1">
-        <v>21.294778</v>
+        <v>21.294778000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1410.510000</v>
+        <v>1410.51</v>
       </c>
       <c r="BV21" s="1">
-        <v>-785.770000</v>
+        <v>-785.77</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>76672.030139</v>
+        <v>76672.030138999995</v>
       </c>
       <c r="BY21" s="1">
-        <v>21.297786</v>
+        <v>21.297785999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1570.040000</v>
+        <v>1570.04</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1015.280000</v>
+        <v>-1015.28</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>76685.027308</v>
+        <v>76685.027308000004</v>
       </c>
       <c r="CD21" s="1">
         <v>21.301396</v>
       </c>
       <c r="CE21" s="1">
-        <v>1971.360000</v>
+        <v>1971.36</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1549.920000</v>
+        <v>-1549.92</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>76510.891858</v>
+        <v>76510.891858000003</v>
       </c>
       <c r="B22" s="1">
-        <v>21.253026</v>
+        <v>21.253025999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>904.275000</v>
+        <v>904.27499999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>-193.060000</v>
+        <v>-193.06</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>76521.277587</v>
+        <v>76521.277587000004</v>
       </c>
       <c r="G22" s="1">
-        <v>21.255910</v>
+        <v>21.25591</v>
       </c>
       <c r="H22" s="1">
-        <v>921.535000</v>
+        <v>921.53499999999997</v>
       </c>
       <c r="I22" s="1">
-        <v>-164.624000</v>
+        <v>-164.624</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>76531.769957</v>
+        <v>76531.769956999997</v>
       </c>
       <c r="L22" s="1">
-        <v>21.258825</v>
+        <v>21.258825000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>944.095000</v>
+        <v>944.09500000000003</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.848000</v>
+        <v>-118.848</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>76542.648748</v>
+        <v>76542.648748000007</v>
       </c>
       <c r="Q22" s="1">
-        <v>21.261847</v>
+        <v>21.261846999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>951.049000</v>
+        <v>951.04899999999998</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.742000</v>
+        <v>-103.742</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>76553.131657</v>
+        <v>76553.131657000005</v>
       </c>
       <c r="V22" s="1">
-        <v>21.264759</v>
+        <v>21.264759000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>957.867000</v>
+        <v>957.86699999999996</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.387500</v>
+        <v>-90.387500000000003</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>76563.677595</v>
+        <v>76563.677595000001</v>
       </c>
       <c r="AA22" s="1">
         <v>21.267688</v>
       </c>
       <c r="AB22" s="1">
-        <v>965.459000</v>
+        <v>965.45899999999995</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.721600</v>
+        <v>-80.721599999999995</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>76574.151613</v>
+        <v>76574.151612999995</v>
       </c>
       <c r="AF22" s="1">
         <v>21.270598</v>
       </c>
       <c r="AG22" s="1">
-        <v>970.606000</v>
+        <v>970.60599999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.161400</v>
+        <v>-80.1614</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>76584.423775</v>
+        <v>76584.423775000003</v>
       </c>
       <c r="AK22" s="1">
-        <v>21.273451</v>
+        <v>21.273451000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>978.704000</v>
+        <v>978.70399999999995</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.667500</v>
+        <v>-87.667500000000004</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>76595.695376</v>
+        <v>76595.695376000003</v>
       </c>
       <c r="AP22" s="1">
-        <v>21.276582</v>
+        <v>21.276582000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>987.959000</v>
+        <v>987.95899999999995</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.367000</v>
+        <v>-102.367</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>76606.459554</v>
+        <v>76606.459554000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>21.279572</v>
+        <v>21.279572000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>999.351000</v>
+        <v>999.351</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.611000</v>
+        <v>-123.611</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>76617.502465</v>
+        <v>76617.502464999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>21.282640</v>
+        <v>21.282640000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1008.980000</v>
+        <v>1008.98</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.159000</v>
+        <v>-142.15899999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>76628.238853</v>
+        <v>76628.238853000003</v>
       </c>
       <c r="BE22" s="1">
         <v>21.285622</v>
       </c>
       <c r="BF22" s="1">
-        <v>1054.330000</v>
+        <v>1054.33</v>
       </c>
       <c r="BG22" s="1">
-        <v>-225.957000</v>
+        <v>-225.95699999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>76639.561563</v>
+        <v>76639.561562999996</v>
       </c>
       <c r="BJ22" s="1">
         <v>21.288767</v>
       </c>
       <c r="BK22" s="1">
-        <v>1133.730000</v>
+        <v>1133.73</v>
       </c>
       <c r="BL22" s="1">
-        <v>-359.918000</v>
+        <v>-359.91800000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>76650.997783</v>
+        <v>76650.997782999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>21.291944</v>
+        <v>21.291944000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1264.330000</v>
+        <v>1264.33</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-566.205000</v>
+        <v>-566.20500000000004</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>76661.631730</v>
+        <v>76661.631729999994</v>
       </c>
       <c r="BT22" s="1">
         <v>21.294898</v>
       </c>
       <c r="BU22" s="1">
-        <v>1410.550000</v>
+        <v>1410.55</v>
       </c>
       <c r="BV22" s="1">
-        <v>-785.778000</v>
+        <v>-785.77800000000002</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>76672.474059</v>
       </c>
       <c r="BY22" s="1">
-        <v>21.297909</v>
+        <v>21.297909000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1569.990000</v>
+        <v>1569.99</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1015.230000</v>
+        <v>-1015.23</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>76685.547624</v>
+        <v>76685.547623999999</v>
       </c>
       <c r="CD22" s="1">
         <v>21.301541</v>
       </c>
       <c r="CE22" s="1">
-        <v>1969.990000</v>
+        <v>1969.99</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1550.660000</v>
+        <v>-1550.66</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>76511.235584</v>
+        <v>76511.235583999995</v>
       </c>
       <c r="B23" s="1">
         <v>21.253121</v>
       </c>
       <c r="C23" s="1">
-        <v>904.334000</v>
+        <v>904.33399999999995</v>
       </c>
       <c r="D23" s="1">
-        <v>-192.964000</v>
+        <v>-192.964</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>76521.624786</v>
@@ -5893,13 +6309,13 @@
         <v>21.256007</v>
       </c>
       <c r="H23" s="1">
-        <v>921.475000</v>
+        <v>921.47500000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>-164.427000</v>
+        <v>-164.42699999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>76532.460884</v>
@@ -5908,133 +6324,133 @@
         <v>21.259017</v>
       </c>
       <c r="M23" s="1">
-        <v>944.178000</v>
+        <v>944.178</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.745000</v>
+        <v>-118.745</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>76543.004870</v>
+        <v>76543.004870000004</v>
       </c>
       <c r="Q23" s="1">
-        <v>21.261946</v>
+        <v>21.261945999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>951.067000</v>
+        <v>951.06700000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.761000</v>
+        <v>-103.761</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>76553.475880</v>
+        <v>76553.475879999998</v>
       </c>
       <c r="V23" s="1">
         <v>21.264854</v>
       </c>
       <c r="W23" s="1">
-        <v>957.791000</v>
+        <v>957.79100000000005</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.283400</v>
+        <v>-90.2834</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>76564.028266</v>
+        <v>76564.028265999994</v>
       </c>
       <c r="AA23" s="1">
-        <v>21.267786</v>
+        <v>21.267786000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>965.465000</v>
+        <v>965.46500000000003</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.651100</v>
+        <v>-80.6511</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>76574.497324</v>
+        <v>76574.497323999996</v>
       </c>
       <c r="AF23" s="1">
-        <v>21.270694</v>
+        <v>21.270693999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>970.679000</v>
+        <v>970.67899999999997</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.171400</v>
+        <v>-80.171400000000006</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>76585.085920</v>
+        <v>76585.085919999998</v>
       </c>
       <c r="AK23" s="1">
-        <v>21.273635</v>
+        <v>21.273634999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>978.721000</v>
+        <v>978.721</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.680200</v>
+        <v>-87.680199999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>76596.117936</v>
+        <v>76596.117935999995</v>
       </c>
       <c r="AP23" s="1">
-        <v>21.276699</v>
+        <v>21.276699000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>987.953000</v>
+        <v>987.95299999999997</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.364000</v>
+        <v>-102.364</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>76606.896498</v>
+        <v>76606.896498000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>21.279693</v>
+        <v>21.279693000000002</v>
       </c>
       <c r="AV23" s="1">
-        <v>999.362000</v>
+        <v>999.36199999999997</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.626000</v>
+        <v>-123.626</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>76617.891846</v>
+        <v>76617.891845999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>21.282748</v>
+        <v>21.282748000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>1008.990000</v>
+        <v>1008.99</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.147000</v>
+        <v>-142.14699999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>76628.599445</v>
@@ -6043,861 +6459,862 @@
         <v>21.285722</v>
       </c>
       <c r="BF23" s="1">
-        <v>1054.340000</v>
+        <v>1054.3399999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-225.967000</v>
+        <v>-225.96700000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>76639.927078</v>
+        <v>76639.927077999993</v>
       </c>
       <c r="BJ23" s="1">
-        <v>21.288869</v>
+        <v>21.288868999999998</v>
       </c>
       <c r="BK23" s="1">
-        <v>1133.690000</v>
+        <v>1133.69</v>
       </c>
       <c r="BL23" s="1">
-        <v>-359.905000</v>
+        <v>-359.90499999999997</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>76651.428808</v>
+        <v>76651.428807999997</v>
       </c>
       <c r="BO23" s="1">
         <v>21.292064</v>
       </c>
       <c r="BP23" s="1">
-        <v>1264.350000</v>
+        <v>1264.3499999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-566.184000</v>
+        <v>-566.18399999999997</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>76662.054105</v>
+        <v>76662.054105000003</v>
       </c>
       <c r="BT23" s="1">
-        <v>21.295015</v>
+        <v>21.295014999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1410.550000</v>
+        <v>1410.55</v>
       </c>
       <c r="BV23" s="1">
-        <v>-785.732000</v>
+        <v>-785.73199999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>76672.896154</v>
+        <v>76672.896154000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>21.298027</v>
+        <v>21.298027000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1569.900000</v>
+        <v>1569.9</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1015.320000</v>
+        <v>-1015.32</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>76686.066923</v>
+        <v>76686.066923000006</v>
       </c>
       <c r="CD23" s="1">
-        <v>21.301685</v>
+        <v>21.301684999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1970.710000</v>
+        <v>1970.71</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1551.940000</v>
+        <v>-1551.94</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>76511.914607</v>
+        <v>76511.914606999999</v>
       </c>
       <c r="B24" s="1">
-        <v>21.253310</v>
+        <v>21.253309999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>904.344000</v>
+        <v>904.34400000000005</v>
       </c>
       <c r="D24" s="1">
-        <v>-193.134000</v>
+        <v>-193.13399999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>76522.318722</v>
+        <v>76522.318721999996</v>
       </c>
       <c r="G24" s="1">
-        <v>21.256200</v>
+        <v>21.2562</v>
       </c>
       <c r="H24" s="1">
-        <v>921.556000</v>
+        <v>921.55600000000004</v>
       </c>
       <c r="I24" s="1">
-        <v>-164.418000</v>
+        <v>-164.41800000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>76532.805107</v>
+        <v>76532.805106999993</v>
       </c>
       <c r="L24" s="1">
-        <v>21.259113</v>
+        <v>21.259112999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>944.237000</v>
+        <v>944.23699999999997</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.778000</v>
+        <v>-118.77800000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>76543.352566</v>
+        <v>76543.352566000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>21.262042</v>
+        <v>21.262042000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>951.059000</v>
+        <v>951.05899999999997</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.792000</v>
+        <v>-103.792</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>76553.823576</v>
+        <v>76553.823575999995</v>
       </c>
       <c r="V24" s="1">
         <v>21.264951</v>
       </c>
       <c r="W24" s="1">
-        <v>957.844000</v>
+        <v>957.84400000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.213800</v>
+        <v>-90.213800000000006</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>76564.695385</v>
+        <v>76564.695384999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>21.267971</v>
+        <v>21.267970999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>965.522000</v>
+        <v>965.52200000000005</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.718700</v>
+        <v>-80.718699999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>76575.163489</v>
+        <v>76575.163488999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>21.270879</v>
+        <v>21.270879000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>970.625000</v>
+        <v>970.625</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.173200</v>
+        <v>-80.173199999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>76585.467342</v>
+        <v>76585.467342000004</v>
       </c>
       <c r="AK24" s="1">
-        <v>21.273741</v>
+        <v>21.273741000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>978.727000</v>
+        <v>978.72699999999998</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.686900</v>
+        <v>-87.686899999999994</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>76596.478527</v>
+        <v>76596.478526999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>21.276800</v>
+        <v>21.276800000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>987.932000</v>
+        <v>987.93200000000002</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.331000</v>
+        <v>-102.331</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>76607.258082</v>
       </c>
       <c r="AU24" s="1">
-        <v>21.279794</v>
+        <v>21.279793999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>999.362000</v>
+        <v>999.36199999999997</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.630000</v>
+        <v>-123.63</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>76618.247447</v>
+        <v>76618.247447000002</v>
       </c>
       <c r="AZ24" s="1">
         <v>21.282847</v>
       </c>
       <c r="BA24" s="1">
-        <v>1008.980000</v>
+        <v>1008.98</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.160000</v>
+        <v>-142.16</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>76629.039396</v>
+        <v>76629.039395999993</v>
       </c>
       <c r="BE24" s="1">
-        <v>21.285844</v>
+        <v>21.285844000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1054.330000</v>
+        <v>1054.33</v>
       </c>
       <c r="BG24" s="1">
-        <v>-225.961000</v>
+        <v>-225.96100000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>76640.373973</v>
+        <v>76640.373972999994</v>
       </c>
       <c r="BJ24" s="1">
-        <v>21.288993</v>
+        <v>21.288993000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1133.710000</v>
+        <v>1133.71</v>
       </c>
       <c r="BL24" s="1">
-        <v>-359.939000</v>
+        <v>-359.93900000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>76651.815941</v>
+        <v>76651.815940999993</v>
       </c>
       <c r="BO24" s="1">
         <v>21.292171</v>
       </c>
       <c r="BP24" s="1">
-        <v>1264.370000</v>
+        <v>1264.3699999999999</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-566.182000</v>
+        <v>-566.18200000000002</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>76662.467768</v>
+        <v>76662.467768000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>21.295130</v>
+        <v>21.29513</v>
       </c>
       <c r="BU24" s="1">
-        <v>1410.510000</v>
+        <v>1410.51</v>
       </c>
       <c r="BV24" s="1">
-        <v>-785.758000</v>
+        <v>-785.75800000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>76673.319737</v>
+        <v>76673.319736999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>21.298144</v>
+        <v>21.298144000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1569.910000</v>
+        <v>1569.91</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1015.240000</v>
+        <v>-1015.24</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>76686.585240</v>
+        <v>76686.58524</v>
       </c>
       <c r="CD24" s="1">
-        <v>21.301829</v>
+        <v>21.301829000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1972.020000</v>
+        <v>1972.02</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1550.740000</v>
+        <v>-1550.74</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>76512.257839</v>
+        <v>76512.257838999998</v>
       </c>
       <c r="B25" s="1">
-        <v>21.253405</v>
+        <v>21.253405000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>904.250000</v>
+        <v>904.25</v>
       </c>
       <c r="D25" s="1">
-        <v>-193.063000</v>
+        <v>-193.06299999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>76522.664898</v>
+        <v>76522.664898000003</v>
       </c>
       <c r="G25" s="1">
-        <v>21.256296</v>
+        <v>21.256295999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>920.579000</v>
+        <v>920.57899999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-164.356000</v>
+        <v>-164.35599999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>76533.154292</v>
+        <v>76533.154292000007</v>
       </c>
       <c r="L25" s="1">
-        <v>21.259210</v>
+        <v>21.259209999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>944.199000</v>
+        <v>944.19899999999996</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.722000</v>
+        <v>-118.72199999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>76544.018661</v>
+        <v>76544.018660999995</v>
       </c>
       <c r="Q25" s="1">
-        <v>21.262227</v>
+        <v>21.262226999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>951.037000</v>
+        <v>951.03700000000003</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.833000</v>
+        <v>-103.833</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>76554.475815</v>
+        <v>76554.475814999998</v>
       </c>
       <c r="V25" s="1">
-        <v>21.265132</v>
+        <v>21.265132000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>957.915000</v>
+        <v>957.91499999999996</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.279200</v>
+        <v>-90.279200000000003</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>76565.068905</v>
+        <v>76565.068904999993</v>
       </c>
       <c r="AA25" s="1">
         <v>21.268075</v>
       </c>
       <c r="AB25" s="1">
-        <v>965.474000</v>
+        <v>965.47400000000005</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.632600</v>
+        <v>-80.632599999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>76575.534974</v>
+        <v>76575.534973999995</v>
       </c>
       <c r="AF25" s="1">
         <v>21.270982</v>
       </c>
       <c r="AG25" s="1">
-        <v>970.620000</v>
+        <v>970.62</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.121400</v>
+        <v>-80.121399999999994</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>76585.816062</v>
+        <v>76585.816061999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>21.273838</v>
+        <v>21.273838000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>978.692000</v>
+        <v>978.69200000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.676200</v>
+        <v>-87.676199999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>76596.841599</v>
+        <v>76596.841599000007</v>
       </c>
       <c r="AP25" s="1">
-        <v>21.276900</v>
+        <v>21.276900000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>987.943000</v>
+        <v>987.94299999999998</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.334000</v>
+        <v>-102.334</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>76607.624128</v>
+        <v>76607.624127999996</v>
       </c>
       <c r="AU25" s="1">
-        <v>21.279896</v>
+        <v>21.279896000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>999.359000</v>
+        <v>999.35900000000004</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.628000</v>
+        <v>-123.628</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>76618.674003</v>
+        <v>76618.674002999993</v>
       </c>
       <c r="AZ25" s="1">
-        <v>21.282965</v>
+        <v>21.282965000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1008.970000</v>
+        <v>1008.97</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.133000</v>
+        <v>-142.13300000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>76629.320628</v>
+        <v>76629.320628000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>21.285922</v>
+        <v>21.285921999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1054.340000</v>
+        <v>1054.3399999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-225.963000</v>
+        <v>-225.96299999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>76640.694389</v>
+        <v>76640.694388999997</v>
       </c>
       <c r="BJ25" s="1">
-        <v>21.289082</v>
+        <v>21.289082000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1133.710000</v>
+        <v>1133.71</v>
       </c>
       <c r="BL25" s="1">
-        <v>-359.927000</v>
+        <v>-359.92700000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>76652.237783</v>
+        <v>76652.237783000004</v>
       </c>
       <c r="BO25" s="1">
-        <v>21.292288</v>
+        <v>21.292287999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1264.360000</v>
+        <v>1264.3599999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-566.188000</v>
+        <v>-566.18799999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>76662.896808</v>
+        <v>76662.896808000005</v>
       </c>
       <c r="BT25" s="1">
-        <v>21.295249</v>
+        <v>21.295248999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>1410.500000</v>
+        <v>1410.5</v>
       </c>
       <c r="BV25" s="1">
-        <v>-785.823000</v>
+        <v>-785.82299999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>76673.769114</v>
+        <v>76673.769113999995</v>
       </c>
       <c r="BY25" s="1">
-        <v>21.298269</v>
+        <v>21.298269000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1570.070000</v>
+        <v>1570.07</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1015.210000</v>
+        <v>-1015.21</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>76687.100584</v>
       </c>
       <c r="CD25" s="1">
-        <v>21.301972</v>
+        <v>21.301971999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1972.040000</v>
+        <v>1972.04</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1551.110000</v>
+        <v>-1551.11</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>76512.600608</v>
+        <v>76512.600607999993</v>
       </c>
       <c r="B26" s="1">
-        <v>21.253500</v>
+        <v>21.253499999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>904.220000</v>
+        <v>904.22</v>
       </c>
       <c r="D26" s="1">
-        <v>-193.046000</v>
+        <v>-193.04599999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>76523.008128</v>
+        <v>76523.008128000001</v>
       </c>
       <c r="G26" s="1">
-        <v>21.256391</v>
+        <v>21.256391000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>921.256000</v>
+        <v>921.25599999999997</v>
       </c>
       <c r="I26" s="1">
-        <v>-164.330000</v>
+        <v>-164.33</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>76533.799090</v>
+        <v>76533.79909</v>
       </c>
       <c r="L26" s="1">
-        <v>21.259389</v>
+        <v>21.259388999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>944.175000</v>
+        <v>944.17499999999995</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.754000</v>
+        <v>-118.754</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>76544.397636</v>
+        <v>76544.397635999994</v>
       </c>
       <c r="Q26" s="1">
-        <v>21.262333</v>
+        <v>21.262333000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>951.022000</v>
+        <v>951.02200000000005</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.806000</v>
+        <v>-103.806</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>76554.866198</v>
+        <v>76554.866198000003</v>
       </c>
       <c r="V26" s="1">
         <v>21.265241</v>
       </c>
       <c r="W26" s="1">
-        <v>957.897000</v>
+        <v>957.89700000000005</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.330000</v>
+        <v>-90.33</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>76565.418552</v>
+        <v>76565.418552000003</v>
       </c>
       <c r="AA26" s="1">
         <v>21.268172</v>
       </c>
       <c r="AB26" s="1">
-        <v>965.456000</v>
+        <v>965.45600000000002</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.674300</v>
+        <v>-80.674300000000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>76575.878684</v>
+        <v>76575.878683999996</v>
       </c>
       <c r="AF26" s="1">
-        <v>21.271077</v>
+        <v>21.271076999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>970.607000</v>
+        <v>970.60699999999997</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.142100</v>
+        <v>-80.142099999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>76586.163724</v>
+        <v>76586.163723999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>21.273934</v>
+        <v>21.273934000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>978.718000</v>
+        <v>978.71799999999996</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.685700</v>
+        <v>-87.685699999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>76597.263230</v>
+        <v>76597.263229999997</v>
       </c>
       <c r="AP26" s="1">
-        <v>21.277018</v>
+        <v>21.277018000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>987.936000</v>
+        <v>987.93600000000004</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.344000</v>
+        <v>-102.34399999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>76608.070032</v>
+        <v>76608.070032000003</v>
       </c>
       <c r="AU26" s="1">
-        <v>21.280019</v>
+        <v>21.280018999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>999.343000</v>
+        <v>999.34299999999996</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.628000</v>
+        <v>-123.628</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>76618.963665</v>
+        <v>76618.963665000003</v>
       </c>
       <c r="AZ26" s="1">
-        <v>21.283045</v>
+        <v>21.283045000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1008.980000</v>
+        <v>1008.98</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.131000</v>
+        <v>-142.131</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>76629.687699</v>
+        <v>76629.687699000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>21.286024</v>
+        <v>21.286024000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1054.340000</v>
+        <v>1054.3399999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-225.950000</v>
+        <v>-225.95</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>76641.084277</v>
+        <v>76641.084277000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>21.289190</v>
+        <v>21.289190000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1133.730000</v>
+        <v>1133.73</v>
       </c>
       <c r="BL26" s="1">
-        <v>-359.920000</v>
+        <v>-359.92</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>76652.633094</v>
+        <v>76652.633094000004</v>
       </c>
       <c r="BO26" s="1">
-        <v>21.292398</v>
+        <v>21.292397999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1264.370000</v>
+        <v>1264.3699999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-566.194000</v>
+        <v>-566.19399999999996</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>76663.325351</v>
+        <v>76663.325351000007</v>
       </c>
       <c r="BT26" s="1">
         <v>21.295368</v>
       </c>
       <c r="BU26" s="1">
-        <v>1410.480000</v>
+        <v>1410.48</v>
       </c>
       <c r="BV26" s="1">
-        <v>-785.732000</v>
+        <v>-785.73199999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>76674.195209</v>
+        <v>76674.195208999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>21.298388</v>
+        <v>21.298387999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1569.920000</v>
+        <v>1569.92</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1015.150000</v>
+        <v>-1015.15</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>76687.652134</v>
+        <v>76687.652134000004</v>
       </c>
       <c r="CD26" s="1">
-        <v>21.302126</v>
+        <v>21.302126000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1971.010000</v>
+        <v>1971.01</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1551.800000</v>
+        <v>-1551.8</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>